--- a/source_data/pigs_samples_IDs_for_NCBI.xlsx
+++ b/source_data/pigs_samples_IDs_for_NCBI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="1140" windowWidth="25360" windowHeight="15760"/>
+    <workbookView xWindow="10460" yWindow="0" windowWidth="8000" windowHeight="15760"/>
   </bookViews>
   <sheets>
     <sheet name="MIMARKS.survey.host-associated." sheetId="1" r:id="rId1"/>
@@ -355,7 +355,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14300" uniqueCount="1237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14345" uniqueCount="1281">
   <si>
     <r>
       <rPr>
@@ -4357,6 +4357,138 @@
   </si>
   <si>
     <t>Fe1/14192</t>
+  </si>
+  <si>
+    <t>Au14/MC1</t>
+  </si>
+  <si>
+    <t>Au14/MC2</t>
+  </si>
+  <si>
+    <t>Au14/MC3</t>
+  </si>
+  <si>
+    <t>Au14/MC4</t>
+  </si>
+  <si>
+    <t>Au14/MC5</t>
+  </si>
+  <si>
+    <t>Au14/MC6</t>
+  </si>
+  <si>
+    <t>Au14/MC7</t>
+  </si>
+  <si>
+    <t>Au14/MC8</t>
+  </si>
+  <si>
+    <t>Au14/MC9</t>
+  </si>
+  <si>
+    <t>18Ja24/ColiGuard_P3</t>
+  </si>
+  <si>
+    <t>18Ja24/Protexin_P4</t>
+  </si>
+  <si>
+    <t>18Ja24/ColiGuard_P4</t>
+  </si>
+  <si>
+    <t>18Ja24/ColiGuard_P5</t>
+  </si>
+  <si>
+    <t>18Ja24/ColiGuard_P6</t>
+  </si>
+  <si>
+    <t>18Ja24/Protexin_P6</t>
+  </si>
+  <si>
+    <t>18Ja24/Protexin_P7</t>
+  </si>
+  <si>
+    <t>18Ja24/ColiGuard_P7</t>
+  </si>
+  <si>
+    <t>18Ja24/Protexin_P8</t>
+  </si>
+  <si>
+    <t>18Ja24/ColiGuard_P8</t>
+  </si>
+  <si>
+    <t>18Ja24/Protexin_P9</t>
+  </si>
+  <si>
+    <t>18Ja24/ColiGuard_P9</t>
+  </si>
+  <si>
+    <t>18Ja24/Protexin_P10</t>
+  </si>
+  <si>
+    <t>18Ja24/ColiGuard_P10</t>
+  </si>
+  <si>
+    <t>18Ja24/Protexin_P3</t>
+  </si>
+  <si>
+    <t>18Ja24/Protexin_P5</t>
+  </si>
+  <si>
+    <t>NA/neg.control_P1</t>
+  </si>
+  <si>
+    <t>NA/neg.control_P1.2</t>
+  </si>
+  <si>
+    <t>NA/neg.control_P2</t>
+  </si>
+  <si>
+    <t>NA/neg.control_P2.2</t>
+  </si>
+  <si>
+    <t>NA/neg.control_P3</t>
+  </si>
+  <si>
+    <t>NA/neg.control_P3.2</t>
+  </si>
+  <si>
+    <t>NA/neg.control_P4</t>
+  </si>
+  <si>
+    <t>NA/neg.control_P4.2</t>
+  </si>
+  <si>
+    <t>NA/neg.control_P5</t>
+  </si>
+  <si>
+    <t>NA/neg.control_P5.2</t>
+  </si>
+  <si>
+    <t>NA/neg.control_P6</t>
+  </si>
+  <si>
+    <t>NA/neg.control_P7</t>
+  </si>
+  <si>
+    <t>NA/neg.control_P7.2</t>
+  </si>
+  <si>
+    <t>NA/neg.control_P8</t>
+  </si>
+  <si>
+    <t>NA/neg.control_P8.2</t>
+  </si>
+  <si>
+    <t>NA/neg.control_P9</t>
+  </si>
+  <si>
+    <t>NA/neg.control_P9.2</t>
+  </si>
+  <si>
+    <t>NA/neg.control_P10</t>
+  </si>
+  <si>
+    <t>NA/neg.control_P10.2</t>
   </si>
 </sst>
 </file>
@@ -4539,8 +4671,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="103">
+  <cellStyleXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4686,7 +4850,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="103">
+  <cellStyles count="135">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4738,6 +4902,22 @@
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4789,6 +4969,22 @@
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5094,15 +5290,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA850"/>
+  <dimension ref="A1:AA895"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145"/>
+    <sheetView tabSelected="1" topLeftCell="A835" workbookViewId="0">
+      <selection activeCell="B875" sqref="B875"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
@@ -51771,6 +51967,231 @@
       </c>
       <c r="R850" s="1" t="s">
         <v>1222</v>
+      </c>
+    </row>
+    <row r="851" spans="1:18">
+      <c r="A851" s="1" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="852" spans="1:18">
+      <c r="A852" s="1" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="853" spans="1:18">
+      <c r="A853" s="1" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="854" spans="1:18">
+      <c r="A854" s="1" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="855" spans="1:18">
+      <c r="A855" s="1" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="856" spans="1:18">
+      <c r="A856" s="1" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="857" spans="1:18">
+      <c r="A857" s="1" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="858" spans="1:18">
+      <c r="A858" s="1" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="859" spans="1:18">
+      <c r="A859" s="1" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="860" spans="1:18">
+      <c r="A860" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="861" spans="1:18">
+      <c r="A861" s="1" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="862" spans="1:18">
+      <c r="A862" s="1" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="863" spans="1:18">
+      <c r="A863" s="1" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="864" spans="1:18">
+      <c r="A864" s="1" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1">
+      <c r="A865" s="1" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1">
+      <c r="A866" s="1" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1">
+      <c r="A867" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1">
+      <c r="A868" s="1" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1">
+      <c r="A869" s="1" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1">
+      <c r="A870" s="1" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1">
+      <c r="A871" s="1" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1">
+      <c r="A872" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1">
+      <c r="A873" s="1" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1">
+      <c r="A874" s="1" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1">
+      <c r="A875" s="23" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1">
+      <c r="A876" s="23" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1">
+      <c r="A877" s="1" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1">
+      <c r="A878" s="1" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1">
+      <c r="A879" s="1" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1">
+      <c r="A880" s="1" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1">
+      <c r="A881" s="23" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1">
+      <c r="A882" s="23" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1">
+      <c r="A883" s="23" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1">
+      <c r="A884" s="23" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1">
+      <c r="A885" s="23" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1">
+      <c r="A886" s="23" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1">
+      <c r="A887" s="23" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1">
+      <c r="A888" s="23" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1">
+      <c r="A889" s="23" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1">
+      <c r="A890" s="23" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1">
+      <c r="A891" s="23" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1">
+      <c r="A892" s="23" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1">
+      <c r="A893" s="23" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1">
+      <c r="A894" s="23" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1">
+      <c r="A895" s="23" t="s">
+        <v>1280</v>
       </c>
     </row>
   </sheetData>

--- a/source_data/pigs_samples_IDs_for_NCBI.xlsx
+++ b/source_data/pigs_samples_IDs_for_NCBI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="MIMARKS.survey.host-associated." sheetId="1" r:id="rId1"/>
@@ -355,7 +355,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15214" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15214" uniqueCount="1286">
   <si>
     <r>
       <rPr>
@@ -4189,9 +4189,6 @@
   </si>
   <si>
     <t>Ja30/319427</t>
-  </si>
-  <si>
-    <t>Ja30/P03697</t>
   </si>
   <si>
     <t>Ja30/316981</t>
@@ -5466,9 +5463,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA892"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S35" sqref="S35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="15" topLeftCell="A801" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A813" sqref="A813"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5646,7 +5643,7 @@
         <v>37</v>
       </c>
       <c r="AA15" s="21" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15">
@@ -6057,7 +6054,7 @@
     </row>
     <row r="23" spans="1:27" ht="15">
       <c r="A23" s="15" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B23"/>
       <c r="D23" s="1" t="s">
@@ -6113,7 +6110,7 @@
       </c>
       <c r="Z23"/>
       <c r="AA23" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="15">
@@ -8240,7 +8237,7 @@
     </row>
     <row r="61" spans="1:27" ht="15">
       <c r="A61" s="15" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B61"/>
       <c r="D61" s="1" t="s">
@@ -8295,7 +8292,7 @@
         <v>175</v>
       </c>
       <c r="AA61" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="62" spans="1:27" ht="15">
@@ -8471,7 +8468,7 @@
     </row>
     <row r="65" spans="1:27" ht="15">
       <c r="A65" s="15" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B65"/>
       <c r="D65" s="1" t="s">
@@ -8526,7 +8523,7 @@
         <v>175</v>
       </c>
       <c r="AA65" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="66" spans="1:27" ht="15">
@@ -10070,7 +10067,7 @@
     </row>
     <row r="93" spans="1:27" ht="15">
       <c r="A93" s="15" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B93"/>
       <c r="D93" s="1" t="s">
@@ -10125,7 +10122,7 @@
         <v>175</v>
       </c>
       <c r="AA93" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="94" spans="1:27" ht="15">
@@ -10643,7 +10640,7 @@
     </row>
     <row r="103" spans="1:27" ht="15">
       <c r="A103" s="15" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B103" s="22"/>
       <c r="C103" s="23"/>
@@ -10705,12 +10702,12 @@
       <c r="Y103" s="23"/>
       <c r="Z103" s="23"/>
       <c r="AA103" s="22" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="104" spans="1:27" ht="15">
       <c r="A104" s="15" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B104"/>
       <c r="D104" s="1" t="s">
@@ -10765,7 +10762,7 @@
         <v>175</v>
       </c>
       <c r="AA104" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="105" spans="1:27" ht="15">
@@ -12765,7 +12762,7 @@
     </row>
     <row r="140" spans="1:27" ht="15">
       <c r="A140" s="15" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B140" s="22"/>
       <c r="C140" s="23"/>
@@ -12827,12 +12824,12 @@
       <c r="Y140" s="23"/>
       <c r="Z140" s="23"/>
       <c r="AA140" s="22" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="141" spans="1:27" ht="15">
       <c r="A141" s="15" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B141" s="22"/>
       <c r="C141" s="23"/>
@@ -12894,12 +12891,12 @@
       <c r="Y141" s="23"/>
       <c r="Z141" s="23"/>
       <c r="AA141" s="22" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="142" spans="1:27" ht="15">
       <c r="A142" s="15" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B142" s="22"/>
       <c r="C142" s="23"/>
@@ -12961,12 +12958,12 @@
       <c r="Y142" s="23"/>
       <c r="Z142" s="22"/>
       <c r="AA142" s="22" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="143" spans="1:27" ht="15">
       <c r="A143" s="15" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B143" s="22"/>
       <c r="C143" s="23"/>
@@ -13028,12 +13025,12 @@
       <c r="Y143" s="23"/>
       <c r="Z143" s="23"/>
       <c r="AA143" s="22" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="144" spans="1:27" ht="15">
       <c r="A144" s="15" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B144"/>
       <c r="D144" s="1" t="s">
@@ -13088,12 +13085,12 @@
         <v>175</v>
       </c>
       <c r="AA144" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="145" spans="1:27" ht="15">
       <c r="A145" s="15" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B145"/>
       <c r="D145" s="1" t="s">
@@ -13148,12 +13145,12 @@
         <v>175</v>
       </c>
       <c r="AA145" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="146" spans="1:27" ht="15">
       <c r="A146" s="15" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B146"/>
       <c r="D146" s="1" t="s">
@@ -13208,12 +13205,12 @@
         <v>175</v>
       </c>
       <c r="AA146" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="147" spans="1:27" ht="15">
       <c r="A147" s="15" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B147"/>
       <c r="D147" s="1" t="s">
@@ -13268,12 +13265,12 @@
         <v>175</v>
       </c>
       <c r="AA147" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="148" spans="1:27" ht="15">
       <c r="A148" s="15" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B148"/>
       <c r="D148" s="1" t="s">
@@ -13328,7 +13325,7 @@
         <v>175</v>
       </c>
       <c r="AA148" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="149" spans="1:27" ht="15">
@@ -41131,7 +41128,7 @@
     </row>
     <row r="635" spans="1:24" ht="15">
       <c r="A635" s="15" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B635"/>
       <c r="D635" s="1" t="s">
@@ -50842,10 +50839,10 @@
         <v>174</v>
       </c>
       <c r="Q805" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R805" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R805" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X805" s="1" t="s">
         <v>175</v>
@@ -50889,10 +50886,10 @@
         <v>174</v>
       </c>
       <c r="Q806" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R806" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R806" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X806" s="1" t="s">
         <v>175</v>
@@ -50936,10 +50933,10 @@
         <v>174</v>
       </c>
       <c r="Q807" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R807" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R807" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X807" s="1" t="s">
         <v>175</v>
@@ -50983,10 +50980,10 @@
         <v>174</v>
       </c>
       <c r="Q808" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R808" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R808" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X808" s="1" t="s">
         <v>175</v>
@@ -51030,10 +51027,10 @@
         <v>174</v>
       </c>
       <c r="Q809" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R809" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R809" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X809" s="1" t="s">
         <v>175</v>
@@ -51077,10 +51074,10 @@
         <v>174</v>
       </c>
       <c r="Q810" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R810" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R810" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X810" s="1" t="s">
         <v>175</v>
@@ -51124,10 +51121,10 @@
         <v>174</v>
       </c>
       <c r="Q811" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R811" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R811" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X811" s="1" t="s">
         <v>175</v>
@@ -51135,7 +51132,7 @@
     </row>
     <row r="812" spans="1:24" ht="15">
       <c r="A812" s="16" t="s">
-        <v>1181</v>
+        <v>1276</v>
       </c>
       <c r="D812" s="1" t="s">
         <v>179</v>
@@ -51171,10 +51168,10 @@
         <v>174</v>
       </c>
       <c r="Q812" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R812" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R812" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X812" s="1" t="s">
         <v>175</v>
@@ -51182,7 +51179,7 @@
     </row>
     <row r="813" spans="1:24" ht="15">
       <c r="A813" s="16" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D813" s="1" t="s">
         <v>179</v>
@@ -51218,10 +51215,10 @@
         <v>174</v>
       </c>
       <c r="Q813" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R813" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R813" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X813" s="1" t="s">
         <v>175</v>
@@ -51229,7 +51226,7 @@
     </row>
     <row r="814" spans="1:24" ht="15">
       <c r="A814" s="16" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D814" s="1" t="s">
         <v>179</v>
@@ -51265,10 +51262,10 @@
         <v>174</v>
       </c>
       <c r="Q814" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R814" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R814" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X814" s="1" t="s">
         <v>175</v>
@@ -51276,7 +51273,7 @@
     </row>
     <row r="815" spans="1:24" ht="15">
       <c r="A815" s="16" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D815" s="1" t="s">
         <v>179</v>
@@ -51312,10 +51309,10 @@
         <v>174</v>
       </c>
       <c r="Q815" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R815" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R815" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X815" s="1" t="s">
         <v>175</v>
@@ -51323,7 +51320,7 @@
     </row>
     <row r="816" spans="1:24" ht="15">
       <c r="A816" s="16" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D816" s="1" t="s">
         <v>179</v>
@@ -51359,10 +51356,10 @@
         <v>174</v>
       </c>
       <c r="Q816" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R816" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R816" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X816" s="1" t="s">
         <v>175</v>
@@ -51370,7 +51367,7 @@
     </row>
     <row r="817" spans="1:24" ht="15">
       <c r="A817" s="16" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D817" s="1" t="s">
         <v>179</v>
@@ -51406,10 +51403,10 @@
         <v>174</v>
       </c>
       <c r="Q817" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R817" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R817" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X817" s="1" t="s">
         <v>175</v>
@@ -51417,7 +51414,7 @@
     </row>
     <row r="818" spans="1:24" ht="15">
       <c r="A818" s="16" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D818" s="1" t="s">
         <v>179</v>
@@ -51453,10 +51450,10 @@
         <v>174</v>
       </c>
       <c r="Q818" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R818" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R818" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X818" s="1" t="s">
         <v>175</v>
@@ -51464,7 +51461,7 @@
     </row>
     <row r="819" spans="1:24" ht="15">
       <c r="A819" s="16" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D819" s="1" t="s">
         <v>179</v>
@@ -51500,10 +51497,10 @@
         <v>174</v>
       </c>
       <c r="Q819" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R819" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R819" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X819" s="1" t="s">
         <v>175</v>
@@ -51511,7 +51508,7 @@
     </row>
     <row r="820" spans="1:24" ht="15">
       <c r="A820" s="16" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D820" s="1" t="s">
         <v>179</v>
@@ -51547,10 +51544,10 @@
         <v>174</v>
       </c>
       <c r="Q820" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R820" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R820" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X820" s="1" t="s">
         <v>175</v>
@@ -51558,7 +51555,7 @@
     </row>
     <row r="821" spans="1:24" ht="15">
       <c r="A821" s="16" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D821" s="1" t="s">
         <v>179</v>
@@ -51594,10 +51591,10 @@
         <v>174</v>
       </c>
       <c r="Q821" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R821" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R821" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X821" s="1" t="s">
         <v>175</v>
@@ -51605,7 +51602,7 @@
     </row>
     <row r="822" spans="1:24" ht="15">
       <c r="A822" s="16" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D822" s="1" t="s">
         <v>179</v>
@@ -51641,10 +51638,10 @@
         <v>174</v>
       </c>
       <c r="Q822" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R822" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R822" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X822" s="1" t="s">
         <v>175</v>
@@ -51652,7 +51649,7 @@
     </row>
     <row r="823" spans="1:24" ht="15">
       <c r="A823" s="16" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D823" s="1" t="s">
         <v>179</v>
@@ -51688,10 +51685,10 @@
         <v>174</v>
       </c>
       <c r="Q823" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R823" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R823" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X823" s="1" t="s">
         <v>175</v>
@@ -51699,7 +51696,7 @@
     </row>
     <row r="824" spans="1:24" ht="15">
       <c r="A824" s="16" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D824" s="1" t="s">
         <v>179</v>
@@ -51735,10 +51732,10 @@
         <v>174</v>
       </c>
       <c r="Q824" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R824" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R824" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X824" s="1" t="s">
         <v>175</v>
@@ -51746,7 +51743,7 @@
     </row>
     <row r="825" spans="1:24" ht="15">
       <c r="A825" s="16" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D825" s="1" t="s">
         <v>179</v>
@@ -51782,10 +51779,10 @@
         <v>174</v>
       </c>
       <c r="Q825" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R825" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R825" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X825" s="1" t="s">
         <v>175</v>
@@ -51793,7 +51790,7 @@
     </row>
     <row r="826" spans="1:24" ht="15">
       <c r="A826" s="16" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D826" s="1" t="s">
         <v>179</v>
@@ -51829,10 +51826,10 @@
         <v>174</v>
       </c>
       <c r="Q826" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R826" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R826" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X826" s="1" t="s">
         <v>175</v>
@@ -51840,7 +51837,7 @@
     </row>
     <row r="827" spans="1:24" ht="15">
       <c r="A827" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D827" s="1" t="s">
         <v>179</v>
@@ -51876,10 +51873,10 @@
         <v>174</v>
       </c>
       <c r="Q827" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R827" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R827" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X827" s="1" t="s">
         <v>175</v>
@@ -51887,7 +51884,7 @@
     </row>
     <row r="828" spans="1:24" ht="15">
       <c r="A828" s="16" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D828" s="1" t="s">
         <v>179</v>
@@ -51923,10 +51920,10 @@
         <v>174</v>
       </c>
       <c r="Q828" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R828" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R828" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X828" s="1" t="s">
         <v>175</v>
@@ -51934,7 +51931,7 @@
     </row>
     <row r="829" spans="1:24" ht="15">
       <c r="A829" s="16" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D829" s="1" t="s">
         <v>179</v>
@@ -51970,10 +51967,10 @@
         <v>174</v>
       </c>
       <c r="Q829" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R829" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R829" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X829" s="1" t="s">
         <v>175</v>
@@ -51981,7 +51978,7 @@
     </row>
     <row r="830" spans="1:24" ht="15">
       <c r="A830" s="16" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D830" s="1" t="s">
         <v>179</v>
@@ -52017,10 +52014,10 @@
         <v>174</v>
       </c>
       <c r="Q830" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R830" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R830" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X830" s="1" t="s">
         <v>175</v>
@@ -52028,7 +52025,7 @@
     </row>
     <row r="831" spans="1:24" ht="15">
       <c r="A831" s="16" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D831" s="1" t="s">
         <v>179</v>
@@ -52064,10 +52061,10 @@
         <v>174</v>
       </c>
       <c r="Q831" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R831" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R831" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X831" s="1" t="s">
         <v>175</v>
@@ -52075,7 +52072,7 @@
     </row>
     <row r="832" spans="1:24" ht="15">
       <c r="A832" s="16" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D832" s="1" t="s">
         <v>179</v>
@@ -52111,10 +52108,10 @@
         <v>174</v>
       </c>
       <c r="Q832" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R832" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R832" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X832" s="1" t="s">
         <v>175</v>
@@ -52122,7 +52119,7 @@
     </row>
     <row r="833" spans="1:24" ht="15">
       <c r="A833" s="16" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D833" s="1" t="s">
         <v>179</v>
@@ -52158,10 +52155,10 @@
         <v>174</v>
       </c>
       <c r="Q833" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R833" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R833" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X833" s="1" t="s">
         <v>175</v>
@@ -52169,7 +52166,7 @@
     </row>
     <row r="834" spans="1:24" ht="15">
       <c r="A834" s="16" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D834" s="1" t="s">
         <v>179</v>
@@ -52205,10 +52202,10 @@
         <v>174</v>
       </c>
       <c r="Q834" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R834" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R834" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X834" s="1" t="s">
         <v>175</v>
@@ -52216,7 +52213,7 @@
     </row>
     <row r="835" spans="1:24" ht="15">
       <c r="A835" s="16" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D835" s="1" t="s">
         <v>179</v>
@@ -52252,10 +52249,10 @@
         <v>174</v>
       </c>
       <c r="Q835" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R835" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R835" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X835" s="1" t="s">
         <v>175</v>
@@ -52263,7 +52260,7 @@
     </row>
     <row r="836" spans="1:24" ht="15">
       <c r="A836" s="16" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D836" s="1" t="s">
         <v>179</v>
@@ -52299,10 +52296,10 @@
         <v>174</v>
       </c>
       <c r="Q836" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R836" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R836" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X836" s="1" t="s">
         <v>175</v>
@@ -52310,7 +52307,7 @@
     </row>
     <row r="837" spans="1:24" ht="15">
       <c r="A837" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D837" s="1" t="s">
         <v>179</v>
@@ -52346,10 +52343,10 @@
         <v>174</v>
       </c>
       <c r="Q837" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R837" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R837" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X837" s="1" t="s">
         <v>175</v>
@@ -52357,7 +52354,7 @@
     </row>
     <row r="838" spans="1:24" ht="15">
       <c r="A838" s="16" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D838" s="1" t="s">
         <v>179</v>
@@ -52393,10 +52390,10 @@
         <v>174</v>
       </c>
       <c r="Q838" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R838" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R838" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X838" s="1" t="s">
         <v>175</v>
@@ -52404,7 +52401,7 @@
     </row>
     <row r="839" spans="1:24" ht="15">
       <c r="A839" s="16" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D839" s="1" t="s">
         <v>179</v>
@@ -52440,10 +52437,10 @@
         <v>174</v>
       </c>
       <c r="Q839" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R839" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R839" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X839" s="1" t="s">
         <v>175</v>
@@ -52451,7 +52448,7 @@
     </row>
     <row r="840" spans="1:24" ht="15">
       <c r="A840" s="16" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D840" s="1" t="s">
         <v>179</v>
@@ -52487,10 +52484,10 @@
         <v>174</v>
       </c>
       <c r="Q840" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R840" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R840" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X840" s="1" t="s">
         <v>175</v>
@@ -52498,7 +52495,7 @@
     </row>
     <row r="841" spans="1:24" ht="15">
       <c r="A841" s="16" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D841" s="1" t="s">
         <v>179</v>
@@ -52534,10 +52531,10 @@
         <v>174</v>
       </c>
       <c r="Q841" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R841" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R841" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X841" s="1" t="s">
         <v>175</v>
@@ -52545,7 +52542,7 @@
     </row>
     <row r="842" spans="1:24" ht="15">
       <c r="A842" s="16" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D842" s="1" t="s">
         <v>179</v>
@@ -52581,10 +52578,10 @@
         <v>174</v>
       </c>
       <c r="Q842" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R842" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R842" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X842" s="1" t="s">
         <v>175</v>
@@ -52592,7 +52589,7 @@
     </row>
     <row r="843" spans="1:24" ht="15">
       <c r="A843" s="16" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D843" s="1" t="s">
         <v>179</v>
@@ -52628,10 +52625,10 @@
         <v>174</v>
       </c>
       <c r="Q843" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R843" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R843" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X843" s="1" t="s">
         <v>175</v>
@@ -52639,7 +52636,7 @@
     </row>
     <row r="844" spans="1:24" ht="15">
       <c r="A844" s="16" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D844" s="1" t="s">
         <v>179</v>
@@ -52675,10 +52672,10 @@
         <v>174</v>
       </c>
       <c r="Q844" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R844" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R844" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X844" s="1" t="s">
         <v>175</v>
@@ -52686,7 +52683,7 @@
     </row>
     <row r="845" spans="1:24" ht="15">
       <c r="A845" s="16" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D845" s="1" t="s">
         <v>179</v>
@@ -52722,10 +52719,10 @@
         <v>174</v>
       </c>
       <c r="Q845" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R845" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R845" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X845" s="1" t="s">
         <v>175</v>
@@ -52733,7 +52730,7 @@
     </row>
     <row r="846" spans="1:24" ht="15">
       <c r="A846" s="16" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D846" s="1" t="s">
         <v>179</v>
@@ -52769,10 +52766,10 @@
         <v>174</v>
       </c>
       <c r="Q846" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R846" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R846" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X846" s="1" t="s">
         <v>175</v>
@@ -52780,7 +52777,7 @@
     </row>
     <row r="847" spans="1:24" ht="15">
       <c r="A847" s="16" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D847" s="1" t="s">
         <v>179</v>
@@ -52816,10 +52813,10 @@
         <v>174</v>
       </c>
       <c r="Q847" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R847" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="R847" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="X847" s="1" t="s">
         <v>175</v>
@@ -52827,49 +52824,49 @@
     </row>
     <row r="848" spans="1:24" ht="15">
       <c r="A848" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D848" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E848" s="17">
         <v>42961</v>
       </c>
       <c r="F848" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G848" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="G848" s="1" t="s">
-        <v>1282</v>
-      </c>
       <c r="H848" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I848" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J848" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K848" s="9" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="M848" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N848" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O848" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P848" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q848" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S848" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X848" s="1" t="s">
         <v>175</v>
@@ -52877,49 +52874,49 @@
     </row>
     <row r="849" spans="1:24" ht="15">
       <c r="A849" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D849" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E849" s="17">
         <v>42961</v>
       </c>
       <c r="F849" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G849" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="G849" s="1" t="s">
-        <v>1282</v>
-      </c>
       <c r="H849" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I849" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J849" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K849" s="9" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="M849" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N849" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O849" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P849" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q849" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S849" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X849" s="1" t="s">
         <v>175</v>
@@ -52927,49 +52924,49 @@
     </row>
     <row r="850" spans="1:24" ht="15">
       <c r="A850" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D850" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E850" s="17">
         <v>42961</v>
       </c>
       <c r="F850" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G850" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="G850" s="1" t="s">
-        <v>1282</v>
-      </c>
       <c r="H850" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I850" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J850" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K850" s="9" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="M850" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N850" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O850" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P850" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q850" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S850" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X850" s="1" t="s">
         <v>175</v>
@@ -52977,49 +52974,49 @@
     </row>
     <row r="851" spans="1:24" ht="15">
       <c r="A851" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D851" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E851" s="17">
         <v>42961</v>
       </c>
       <c r="F851" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G851" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="G851" s="1" t="s">
-        <v>1282</v>
-      </c>
       <c r="H851" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I851" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J851" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K851" s="9" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="M851" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N851" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O851" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P851" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q851" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S851" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X851" s="1" t="s">
         <v>175</v>
@@ -53027,49 +53024,49 @@
     </row>
     <row r="852" spans="1:24" ht="15">
       <c r="A852" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D852" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E852" s="17">
         <v>42961</v>
       </c>
       <c r="F852" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G852" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="G852" s="1" t="s">
-        <v>1282</v>
-      </c>
       <c r="H852" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I852" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J852" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K852" s="9" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="M852" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N852" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O852" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P852" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q852" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S852" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X852" s="1" t="s">
         <v>175</v>
@@ -53077,49 +53074,49 @@
     </row>
     <row r="853" spans="1:24" ht="15">
       <c r="A853" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D853" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E853" s="17">
         <v>42961</v>
       </c>
       <c r="F853" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G853" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="G853" s="1" t="s">
-        <v>1282</v>
-      </c>
       <c r="H853" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I853" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J853" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K853" s="9" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="M853" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N853" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O853" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P853" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q853" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S853" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X853" s="1" t="s">
         <v>175</v>
@@ -53127,49 +53124,49 @@
     </row>
     <row r="854" spans="1:24" ht="15">
       <c r="A854" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D854" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E854" s="17">
         <v>42961</v>
       </c>
       <c r="F854" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G854" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="G854" s="1" t="s">
-        <v>1282</v>
-      </c>
       <c r="H854" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I854" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J854" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K854" s="9" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="M854" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N854" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O854" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P854" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q854" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S854" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X854" s="1" t="s">
         <v>175</v>
@@ -53177,49 +53174,49 @@
     </row>
     <row r="855" spans="1:24" ht="15">
       <c r="A855" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D855" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E855" s="17">
         <v>42961</v>
       </c>
       <c r="F855" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G855" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="G855" s="1" t="s">
-        <v>1282</v>
-      </c>
       <c r="H855" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I855" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J855" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K855" s="9" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="M855" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N855" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O855" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P855" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q855" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S855" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X855" s="1" t="s">
         <v>175</v>
@@ -53227,49 +53224,49 @@
     </row>
     <row r="856" spans="1:24" ht="15">
       <c r="A856" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D856" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E856" s="17">
         <v>42961</v>
       </c>
       <c r="F856" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G856" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="G856" s="1" t="s">
-        <v>1282</v>
-      </c>
       <c r="H856" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I856" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J856" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K856" s="9" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="M856" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N856" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O856" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P856" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q856" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S856" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X856" s="1" t="s">
         <v>175</v>
@@ -53277,49 +53274,49 @@
     </row>
     <row r="857" spans="1:24" ht="15">
       <c r="A857" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D857" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E857" s="17">
         <v>42961</v>
       </c>
       <c r="F857" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G857" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="G857" s="1" t="s">
-        <v>1282</v>
-      </c>
       <c r="H857" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I857" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J857" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K857" s="9" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="M857" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N857" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O857" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P857" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q857" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S857" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X857" s="1" t="s">
         <v>175</v>
@@ -53327,28 +53324,28 @@
     </row>
     <row r="858" spans="1:24" ht="15">
       <c r="A858" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D858" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E858" s="17">
         <v>43124</v>
       </c>
       <c r="F858" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G858" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H858" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I858" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J858" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K858" s="9" t="s">
         <v>170</v>
@@ -53357,19 +53354,19 @@
         <v>954</v>
       </c>
       <c r="N858" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O858" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P858" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q858" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S858" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X858" s="1" t="s">
         <v>175</v>
@@ -53377,28 +53374,28 @@
     </row>
     <row r="859" spans="1:24" ht="15">
       <c r="A859" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D859" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E859" s="17">
         <v>43124</v>
       </c>
       <c r="F859" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G859" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H859" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="I859" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J859" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K859" s="9" t="s">
         <v>170</v>
@@ -53407,19 +53404,19 @@
         <v>954</v>
       </c>
       <c r="N859" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O859" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P859" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q859" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S859" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X859" s="1" t="s">
         <v>175</v>
@@ -53427,28 +53424,28 @@
     </row>
     <row r="860" spans="1:24" ht="15">
       <c r="A860" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D860" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E860" s="17">
         <v>43124</v>
       </c>
       <c r="F860" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G860" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H860" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="I860" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J860" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K860" s="9" t="s">
         <v>170</v>
@@ -53457,19 +53454,19 @@
         <v>954</v>
       </c>
       <c r="N860" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O860" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P860" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q860" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S860" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X860" s="1" t="s">
         <v>175</v>
@@ -53477,28 +53474,28 @@
     </row>
     <row r="861" spans="1:24" ht="15">
       <c r="A861" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D861" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E861" s="17">
         <v>43124</v>
       </c>
       <c r="F861" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G861" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H861" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I861" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J861" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K861" s="9" t="s">
         <v>170</v>
@@ -53507,19 +53504,19 @@
         <v>954</v>
       </c>
       <c r="N861" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O861" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P861" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q861" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S861" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X861" s="1" t="s">
         <v>175</v>
@@ -53527,28 +53524,28 @@
     </row>
     <row r="862" spans="1:24" ht="15">
       <c r="A862" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D862" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E862" s="17">
         <v>43124</v>
       </c>
       <c r="F862" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G862" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H862" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="I862" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J862" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K862" s="9" t="s">
         <v>170</v>
@@ -53557,19 +53554,19 @@
         <v>954</v>
       </c>
       <c r="N862" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O862" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P862" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q862" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S862" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X862" s="1" t="s">
         <v>175</v>
@@ -53577,28 +53574,28 @@
     </row>
     <row r="863" spans="1:24" ht="15">
       <c r="A863" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D863" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E863" s="17">
         <v>43124</v>
       </c>
       <c r="F863" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G863" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H863" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I863" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J863" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K863" s="9" t="s">
         <v>170</v>
@@ -53607,19 +53604,19 @@
         <v>954</v>
       </c>
       <c r="N863" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O863" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P863" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q863" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S863" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X863" s="1" t="s">
         <v>175</v>
@@ -53627,28 +53624,28 @@
     </row>
     <row r="864" spans="1:24" ht="15">
       <c r="A864" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D864" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E864" s="17">
         <v>43124</v>
       </c>
       <c r="F864" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G864" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H864" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I864" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J864" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K864" s="9" t="s">
         <v>170</v>
@@ -53657,19 +53654,19 @@
         <v>954</v>
       </c>
       <c r="N864" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O864" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P864" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q864" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S864" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X864" s="1" t="s">
         <v>175</v>
@@ -53677,28 +53674,28 @@
     </row>
     <row r="865" spans="1:24" ht="15">
       <c r="A865" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D865" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E865" s="17">
         <v>43124</v>
       </c>
       <c r="F865" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G865" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H865" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="I865" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J865" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K865" s="9" t="s">
         <v>170</v>
@@ -53707,19 +53704,19 @@
         <v>954</v>
       </c>
       <c r="N865" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O865" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P865" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q865" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S865" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X865" s="1" t="s">
         <v>175</v>
@@ -53727,28 +53724,28 @@
     </row>
     <row r="866" spans="1:24" ht="15">
       <c r="A866" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D866" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E866" s="17">
         <v>43124</v>
       </c>
       <c r="F866" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G866" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H866" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="I866" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J866" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K866" s="9" t="s">
         <v>170</v>
@@ -53757,19 +53754,19 @@
         <v>954</v>
       </c>
       <c r="N866" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O866" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P866" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q866" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S866" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X866" s="1" t="s">
         <v>175</v>
@@ -53777,28 +53774,28 @@
     </row>
     <row r="867" spans="1:24" ht="15">
       <c r="A867" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D867" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E867" s="17">
         <v>43124</v>
       </c>
       <c r="F867" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G867" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H867" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I867" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J867" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K867" s="9" t="s">
         <v>170</v>
@@ -53807,19 +53804,19 @@
         <v>954</v>
       </c>
       <c r="N867" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O867" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P867" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q867" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S867" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X867" s="1" t="s">
         <v>175</v>
@@ -53827,28 +53824,28 @@
     </row>
     <row r="868" spans="1:24" ht="15">
       <c r="A868" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D868" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E868" s="17">
         <v>43124</v>
       </c>
       <c r="F868" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G868" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H868" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="I868" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J868" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K868" s="9" t="s">
         <v>170</v>
@@ -53857,19 +53854,19 @@
         <v>954</v>
       </c>
       <c r="N868" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O868" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P868" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q868" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S868" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X868" s="1" t="s">
         <v>175</v>
@@ -53877,28 +53874,28 @@
     </row>
     <row r="869" spans="1:24" ht="15">
       <c r="A869" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D869" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E869" s="17">
         <v>43124</v>
       </c>
       <c r="F869" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G869" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H869" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I869" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J869" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K869" s="9" t="s">
         <v>170</v>
@@ -53907,19 +53904,19 @@
         <v>954</v>
       </c>
       <c r="N869" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O869" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P869" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q869" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S869" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X869" s="1" t="s">
         <v>175</v>
@@ -53927,28 +53924,28 @@
     </row>
     <row r="870" spans="1:24" ht="15">
       <c r="A870" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D870" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E870" s="17">
         <v>43124</v>
       </c>
       <c r="F870" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G870" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H870" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="I870" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J870" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K870" s="9" t="s">
         <v>170</v>
@@ -53957,19 +53954,19 @@
         <v>954</v>
       </c>
       <c r="N870" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O870" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P870" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q870" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S870" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X870" s="1" t="s">
         <v>175</v>
@@ -53977,28 +53974,28 @@
     </row>
     <row r="871" spans="1:24" ht="15">
       <c r="A871" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D871" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E871" s="17">
         <v>43124</v>
       </c>
       <c r="F871" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G871" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H871" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I871" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J871" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K871" s="9" t="s">
         <v>170</v>
@@ -54007,19 +54004,19 @@
         <v>954</v>
       </c>
       <c r="N871" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O871" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P871" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q871" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S871" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X871" s="1" t="s">
         <v>175</v>
@@ -54027,28 +54024,28 @@
     </row>
     <row r="872" spans="1:24" ht="15">
       <c r="A872" s="23" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D872" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E872" s="17">
         <v>43124</v>
       </c>
       <c r="F872" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G872" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H872" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="I872" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J872" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K872" s="9" t="s">
         <v>170</v>
@@ -54057,19 +54054,19 @@
         <v>954</v>
       </c>
       <c r="N872" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O872" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P872" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q872" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S872" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X872" s="1" t="s">
         <v>175</v>
@@ -54077,28 +54074,28 @@
     </row>
     <row r="873" spans="1:24" ht="15">
       <c r="A873" s="23" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D873" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E873" s="17">
         <v>43124</v>
       </c>
       <c r="F873" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G873" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H873" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I873" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J873" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K873" s="9" t="s">
         <v>170</v>
@@ -54107,19 +54104,19 @@
         <v>954</v>
       </c>
       <c r="N873" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O873" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P873" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q873" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S873" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X873" s="1" t="s">
         <v>175</v>
@@ -54127,895 +54124,895 @@
     </row>
     <row r="874" spans="1:24">
       <c r="A874" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D874" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F874" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G874" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H874" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I874" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J874" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="F874" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G874" s="1" t="s">
+      <c r="K874" s="9" t="s">
         <v>1285</v>
-      </c>
-      <c r="H874" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="I874" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J874" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="K874" s="9" t="s">
-        <v>1286</v>
       </c>
       <c r="M874" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N874" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O874" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P874" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q874" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S874" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X874" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="875" spans="1:24">
       <c r="A875" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D875" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F875" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G875" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H875" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I875" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J875" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="F875" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G875" s="1" t="s">
+      <c r="K875" s="9" t="s">
         <v>1285</v>
-      </c>
-      <c r="H875" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="I875" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J875" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="K875" s="9" t="s">
-        <v>1286</v>
       </c>
       <c r="M875" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N875" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O875" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P875" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q875" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S875" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X875" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="876" spans="1:24">
       <c r="A876" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D876" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F876" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G876" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H876" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I876" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J876" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="F876" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G876" s="1" t="s">
+      <c r="K876" s="9" t="s">
         <v>1285</v>
-      </c>
-      <c r="H876" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="I876" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J876" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="K876" s="9" t="s">
-        <v>1286</v>
       </c>
       <c r="M876" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N876" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O876" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P876" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q876" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S876" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X876" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="877" spans="1:24">
       <c r="A877" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D877" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F877" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G877" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H877" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I877" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J877" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="F877" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G877" s="1" t="s">
+      <c r="K877" s="9" t="s">
         <v>1285</v>
-      </c>
-      <c r="H877" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="I877" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J877" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="K877" s="9" t="s">
-        <v>1286</v>
       </c>
       <c r="M877" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N877" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O877" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P877" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q877" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S877" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X877" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="878" spans="1:24">
       <c r="A878" s="23" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D878" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F878" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G878" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H878" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I878" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J878" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="F878" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G878" s="1" t="s">
+      <c r="K878" s="9" t="s">
         <v>1285</v>
-      </c>
-      <c r="H878" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="I878" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J878" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="K878" s="9" t="s">
-        <v>1286</v>
       </c>
       <c r="M878" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N878" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O878" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P878" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q878" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S878" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X878" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="879" spans="1:24">
       <c r="A879" s="23" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D879" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F879" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G879" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H879" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I879" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J879" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="F879" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G879" s="1" t="s">
+      <c r="K879" s="9" t="s">
         <v>1285</v>
-      </c>
-      <c r="H879" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="I879" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J879" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="K879" s="9" t="s">
-        <v>1286</v>
       </c>
       <c r="M879" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N879" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O879" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P879" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q879" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S879" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X879" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="880" spans="1:24">
       <c r="A880" s="23" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D880" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F880" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G880" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H880" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I880" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J880" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="F880" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G880" s="1" t="s">
+      <c r="K880" s="9" t="s">
         <v>1285</v>
-      </c>
-      <c r="H880" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="I880" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J880" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="K880" s="9" t="s">
-        <v>1286</v>
       </c>
       <c r="M880" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N880" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O880" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P880" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q880" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S880" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X880" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="881" spans="1:24">
       <c r="A881" s="23" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D881" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F881" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G881" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H881" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I881" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J881" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="F881" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G881" s="1" t="s">
+      <c r="K881" s="9" t="s">
         <v>1285</v>
-      </c>
-      <c r="H881" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="I881" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J881" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="K881" s="9" t="s">
-        <v>1286</v>
       </c>
       <c r="M881" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N881" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O881" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P881" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q881" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S881" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X881" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="882" spans="1:24">
       <c r="A882" s="23" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D882" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F882" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G882" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H882" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I882" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J882" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="F882" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G882" s="1" t="s">
+      <c r="K882" s="9" t="s">
         <v>1285</v>
-      </c>
-      <c r="H882" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="I882" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J882" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="K882" s="9" t="s">
-        <v>1286</v>
       </c>
       <c r="M882" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N882" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O882" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P882" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q882" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S882" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X882" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="883" spans="1:24">
       <c r="A883" s="23" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D883" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F883" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G883" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H883" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I883" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J883" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="F883" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G883" s="1" t="s">
+      <c r="K883" s="9" t="s">
         <v>1285</v>
-      </c>
-      <c r="H883" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="I883" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J883" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="K883" s="9" t="s">
-        <v>1286</v>
       </c>
       <c r="M883" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N883" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O883" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P883" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q883" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S883" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X883" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="884" spans="1:24">
       <c r="A884" s="23" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D884" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F884" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G884" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H884" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I884" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J884" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="F884" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G884" s="1" t="s">
+      <c r="K884" s="9" t="s">
         <v>1285</v>
-      </c>
-      <c r="H884" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="I884" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J884" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="K884" s="9" t="s">
-        <v>1286</v>
       </c>
       <c r="M884" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N884" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O884" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P884" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q884" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S884" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X884" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="885" spans="1:24">
       <c r="A885" s="23" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D885" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F885" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G885" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H885" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I885" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J885" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="F885" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G885" s="1" t="s">
+      <c r="K885" s="9" t="s">
         <v>1285</v>
-      </c>
-      <c r="H885" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="I885" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J885" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="K885" s="9" t="s">
-        <v>1286</v>
       </c>
       <c r="M885" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N885" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O885" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P885" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q885" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S885" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X885" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="886" spans="1:24">
       <c r="A886" s="23" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D886" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F886" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G886" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H886" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I886" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J886" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="F886" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G886" s="1" t="s">
+      <c r="K886" s="9" t="s">
         <v>1285</v>
-      </c>
-      <c r="H886" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="I886" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J886" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="K886" s="9" t="s">
-        <v>1286</v>
       </c>
       <c r="M886" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N886" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O886" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P886" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q886" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S886" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X886" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="887" spans="1:24">
       <c r="A887" s="23" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D887" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F887" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G887" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H887" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I887" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J887" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="F887" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G887" s="1" t="s">
+      <c r="K887" s="9" t="s">
         <v>1285</v>
-      </c>
-      <c r="H887" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="I887" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J887" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="K887" s="9" t="s">
-        <v>1286</v>
       </c>
       <c r="M887" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N887" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O887" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P887" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q887" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S887" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X887" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="888" spans="1:24">
       <c r="A888" s="23" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D888" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F888" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G888" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H888" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I888" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J888" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="F888" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G888" s="1" t="s">
+      <c r="K888" s="9" t="s">
         <v>1285</v>
-      </c>
-      <c r="H888" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="I888" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J888" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="K888" s="9" t="s">
-        <v>1286</v>
       </c>
       <c r="M888" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N888" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O888" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P888" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q888" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S888" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X888" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="889" spans="1:24">
       <c r="A889" s="23" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D889" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F889" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G889" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H889" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I889" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J889" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="F889" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G889" s="1" t="s">
+      <c r="K889" s="9" t="s">
         <v>1285</v>
-      </c>
-      <c r="H889" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="I889" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J889" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="K889" s="9" t="s">
-        <v>1286</v>
       </c>
       <c r="M889" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N889" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O889" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P889" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q889" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S889" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X889" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="890" spans="1:24">
       <c r="A890" s="23" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D890" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F890" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G890" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H890" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I890" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J890" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="F890" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G890" s="1" t="s">
+      <c r="K890" s="9" t="s">
         <v>1285</v>
-      </c>
-      <c r="H890" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="I890" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J890" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="K890" s="9" t="s">
-        <v>1286</v>
       </c>
       <c r="M890" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N890" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O890" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P890" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q890" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S890" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X890" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="891" spans="1:24">
       <c r="A891" s="23" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D891" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F891" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G891" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H891" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I891" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J891" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="F891" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G891" s="1" t="s">
+      <c r="K891" s="9" t="s">
         <v>1285</v>
-      </c>
-      <c r="H891" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="I891" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J891" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="K891" s="9" t="s">
-        <v>1286</v>
       </c>
       <c r="M891" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N891" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O891" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P891" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q891" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S891" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X891" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="892" spans="1:24">
       <c r="A892" s="23" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D892" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F892" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G892" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H892" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I892" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J892" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="F892" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G892" s="1" t="s">
+      <c r="K892" s="9" t="s">
         <v>1285</v>
-      </c>
-      <c r="H892" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="I892" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J892" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="K892" s="9" t="s">
-        <v>1286</v>
       </c>
       <c r="M892" s="1" t="s">
         <v>954</v>
       </c>
       <c r="N892" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O892" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P892" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q892" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="S892" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X892" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
   </sheetData>

--- a/source_data/pigs_samples_IDs_for_NCBI.xlsx
+++ b/source_data/pigs_samples_IDs_for_NCBI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27120" windowHeight="15160" tabRatio="991"/>
+    <workbookView xWindow="15060" yWindow="580" windowWidth="27120" windowHeight="15220" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="MIMARKS.survey.host-associated." sheetId="1" r:id="rId1"/>
@@ -383,7 +383,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15518" uniqueCount="1148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15500" uniqueCount="1148">
   <si>
     <r>
       <rPr>
@@ -4130,7 +4130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4228,6 +4228,22 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4273,8 +4289,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4313,7 +4333,11 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5991,17 +6015,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC900"/>
+  <dimension ref="A1:AC899"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="15" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="V1" sqref="V1"/>
-      <selection pane="bottomLeft" activeCell="Y891" sqref="Y891"/>
+      <selection pane="bottomLeft" activeCell="S144" sqref="S144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="26" width="8.83203125" style="1"/>
+    <col min="1" max="4" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
+    <col min="6" max="26" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="2" customFormat="1" ht="15">
@@ -12278,7 +12304,7 @@
     </row>
     <row r="103" spans="1:29" ht="15">
       <c r="A103" s="8" t="s">
-        <v>63</v>
+        <v>198</v>
       </c>
       <c r="B103" s="12"/>
       <c r="C103" s="13"/>
@@ -12286,7 +12312,7 @@
         <v>43</v>
       </c>
       <c r="E103" s="9">
-        <v>42768</v>
+        <v>42767</v>
       </c>
       <c r="F103" s="13" t="s">
         <v>44</v>
@@ -14946,7 +14972,7 @@
         <v>43</v>
       </c>
       <c r="E141" s="9">
-        <v>42768</v>
+        <v>42766</v>
       </c>
       <c r="F141" s="13" t="s">
         <v>44</v>
@@ -15076,73 +15102,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:29" ht="15">
+    <row r="143" spans="1:29" s="11" customFormat="1" ht="15">
       <c r="A143" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B143" s="12"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="13" t="s">
+      <c r="B143" s="8"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E143" s="9">
         <v>42767</v>
       </c>
-      <c r="F143" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G143" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H143" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I143" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J143" s="13" t="s">
+      <c r="F143" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J143" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K143" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L143" s="12">
-        <v>91.1</v>
-      </c>
-      <c r="M143" s="13" t="s">
+      <c r="L143">
+        <v>91.1</v>
+      </c>
+      <c r="M143" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N143" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="O143" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="P143" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q143" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="R143" s="13" t="s">
+      <c r="N143" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O143" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P143" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q143" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R143" s="1" t="s">
         <v>53</v>
       </c>
       <c r="S143">
         <v>14160</v>
       </c>
-      <c r="T143" s="13"/>
-      <c r="U143" s="13"/>
-      <c r="V143" s="13"/>
-      <c r="W143" s="13"/>
+      <c r="T143" s="1"/>
+      <c r="U143" s="1"/>
+      <c r="V143" s="1"/>
+      <c r="W143" s="1"/>
       <c r="X143" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="Y143" s="13"/>
-      <c r="Z143" s="12"/>
+      <c r="Y143" s="1"/>
+      <c r="Z143" s="1"/>
       <c r="AA143" t="s">
         <v>62</v>
       </c>
-      <c r="AC143" s="11">
+      <c r="AB143"/>
+      <c r="AC143">
         <v>0</v>
       </c>
     </row>
@@ -64591,7 +64618,7 @@
     </row>
     <row r="864" spans="1:29" ht="15">
       <c r="A864" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D864" s="1" t="s">
         <v>961</v>
@@ -64650,22 +64677,22 @@
     </row>
     <row r="865" spans="1:29" ht="15">
       <c r="A865" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D865" s="1" t="s">
-        <v>961</v>
+        <v>976</v>
       </c>
       <c r="E865" s="9">
-        <v>42961</v>
+        <v>43124</v>
       </c>
       <c r="F865" s="1" t="s">
         <v>962</v>
       </c>
       <c r="G865" s="1" t="s">
-        <v>963</v>
+        <v>977</v>
       </c>
       <c r="H865" s="1" t="s">
-        <v>963</v>
+        <v>977</v>
       </c>
       <c r="I865" s="1" t="s">
         <v>46</v>
@@ -64674,7 +64701,7 @@
         <v>907</v>
       </c>
       <c r="K865" s="10" t="s">
-        <v>964</v>
+        <v>48</v>
       </c>
       <c r="M865" s="1" t="s">
         <v>49</v>
@@ -64695,7 +64722,7 @@
         <v>965</v>
       </c>
       <c r="S865" s="1" t="s">
-        <v>966</v>
+        <v>978</v>
       </c>
       <c r="X865" s="21" t="s">
         <v>54</v>
@@ -64709,7 +64736,7 @@
     </row>
     <row r="866" spans="1:29" ht="15">
       <c r="A866" s="1" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="D866" s="1" t="s">
         <v>976</v>
@@ -64721,10 +64748,10 @@
         <v>962</v>
       </c>
       <c r="G866" s="1" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="H866" s="1" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="I866" s="1" t="s">
         <v>46</v>
@@ -64754,7 +64781,7 @@
         <v>965</v>
       </c>
       <c r="S866" s="1" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="X866" s="21" t="s">
         <v>54</v>
@@ -64768,7 +64795,7 @@
     </row>
     <row r="867" spans="1:29" ht="15">
       <c r="A867" s="1" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="D867" s="1" t="s">
         <v>976</v>
@@ -64827,7 +64854,7 @@
     </row>
     <row r="868" spans="1:29" ht="15">
       <c r="A868" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D868" s="1" t="s">
         <v>976</v>
@@ -64839,10 +64866,10 @@
         <v>962</v>
       </c>
       <c r="G868" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="H868" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="I868" s="1" t="s">
         <v>46</v>
@@ -64872,7 +64899,7 @@
         <v>965</v>
       </c>
       <c r="S868" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="X868" s="21" t="s">
         <v>54</v>
@@ -64886,7 +64913,7 @@
     </row>
     <row r="869" spans="1:29" ht="15">
       <c r="A869" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D869" s="1" t="s">
         <v>976</v>
@@ -64898,10 +64925,10 @@
         <v>962</v>
       </c>
       <c r="G869" s="1" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="H869" s="1" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="I869" s="1" t="s">
         <v>46</v>
@@ -64931,7 +64958,7 @@
         <v>965</v>
       </c>
       <c r="S869" s="1" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="X869" s="21" t="s">
         <v>54</v>
@@ -64945,7 +64972,7 @@
     </row>
     <row r="870" spans="1:29" ht="15">
       <c r="A870" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D870" s="1" t="s">
         <v>976</v>
@@ -64957,10 +64984,10 @@
         <v>962</v>
       </c>
       <c r="G870" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="H870" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="I870" s="1" t="s">
         <v>46</v>
@@ -64990,7 +65017,7 @@
         <v>965</v>
       </c>
       <c r="S870" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="X870" s="21" t="s">
         <v>54</v>
@@ -65004,7 +65031,7 @@
     </row>
     <row r="871" spans="1:29" ht="15">
       <c r="A871" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D871" s="1" t="s">
         <v>976</v>
@@ -65063,7 +65090,7 @@
     </row>
     <row r="872" spans="1:29" ht="15">
       <c r="A872" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D872" s="1" t="s">
         <v>976</v>
@@ -65075,10 +65102,10 @@
         <v>962</v>
       </c>
       <c r="G872" s="1" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="H872" s="1" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="I872" s="1" t="s">
         <v>46</v>
@@ -65108,7 +65135,7 @@
         <v>965</v>
       </c>
       <c r="S872" s="1" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="X872" s="21" t="s">
         <v>54</v>
@@ -65122,7 +65149,7 @@
     </row>
     <row r="873" spans="1:29" ht="15">
       <c r="A873" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D873" s="1" t="s">
         <v>976</v>
@@ -65181,7 +65208,7 @@
     </row>
     <row r="874" spans="1:29" ht="15">
       <c r="A874" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D874" s="1" t="s">
         <v>976</v>
@@ -65193,10 +65220,10 @@
         <v>962</v>
       </c>
       <c r="G874" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="H874" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="I874" s="1" t="s">
         <v>46</v>
@@ -65226,7 +65253,7 @@
         <v>965</v>
       </c>
       <c r="S874" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="X874" s="21" t="s">
         <v>54</v>
@@ -65240,7 +65267,7 @@
     </row>
     <row r="875" spans="1:29" ht="15">
       <c r="A875" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D875" s="1" t="s">
         <v>976</v>
@@ -65252,10 +65279,10 @@
         <v>962</v>
       </c>
       <c r="G875" s="1" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="H875" s="1" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="I875" s="1" t="s">
         <v>46</v>
@@ -65285,7 +65312,7 @@
         <v>965</v>
       </c>
       <c r="S875" s="1" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="X875" s="21" t="s">
         <v>54</v>
@@ -65299,7 +65326,7 @@
     </row>
     <row r="876" spans="1:29" ht="15">
       <c r="A876" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D876" s="1" t="s">
         <v>976</v>
@@ -65311,10 +65338,10 @@
         <v>962</v>
       </c>
       <c r="G876" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="H876" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="I876" s="1" t="s">
         <v>46</v>
@@ -65344,7 +65371,7 @@
         <v>965</v>
       </c>
       <c r="S876" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="X876" s="21" t="s">
         <v>54</v>
@@ -65358,7 +65385,7 @@
     </row>
     <row r="877" spans="1:29" ht="15">
       <c r="A877" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D877" s="1" t="s">
         <v>976</v>
@@ -65370,10 +65397,10 @@
         <v>962</v>
       </c>
       <c r="G877" s="1" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="H877" s="1" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="I877" s="1" t="s">
         <v>46</v>
@@ -65403,7 +65430,7 @@
         <v>965</v>
       </c>
       <c r="S877" s="1" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="X877" s="21" t="s">
         <v>54</v>
@@ -65417,7 +65444,7 @@
     </row>
     <row r="878" spans="1:29" ht="15">
       <c r="A878" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D878" s="1" t="s">
         <v>976</v>
@@ -65429,10 +65456,10 @@
         <v>962</v>
       </c>
       <c r="G878" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="H878" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="I878" s="1" t="s">
         <v>46</v>
@@ -65462,7 +65489,7 @@
         <v>965</v>
       </c>
       <c r="S878" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="X878" s="21" t="s">
         <v>54</v>
@@ -65475,8 +65502,8 @@
       </c>
     </row>
     <row r="879" spans="1:29" ht="15">
-      <c r="A879" s="1" t="s">
-        <v>993</v>
+      <c r="A879" s="13" t="s">
+        <v>994</v>
       </c>
       <c r="D879" s="1" t="s">
         <v>976</v>
@@ -65488,10 +65515,10 @@
         <v>962</v>
       </c>
       <c r="G879" s="1" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="H879" s="1" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="I879" s="1" t="s">
         <v>46</v>
@@ -65521,8 +65548,9 @@
         <v>965</v>
       </c>
       <c r="S879" s="1" t="s">
-        <v>978</v>
-      </c>
+        <v>981</v>
+      </c>
+      <c r="T879" s="13"/>
       <c r="X879" s="21" t="s">
         <v>54</v>
       </c>
@@ -65535,7 +65563,7 @@
     </row>
     <row r="880" spans="1:29" ht="15">
       <c r="A880" s="13" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D880" s="1" t="s">
         <v>976</v>
@@ -65547,10 +65575,10 @@
         <v>962</v>
       </c>
       <c r="G880" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="H880" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="I880" s="1" t="s">
         <v>46</v>
@@ -65580,7 +65608,7 @@
         <v>965</v>
       </c>
       <c r="S880" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="T880" s="13"/>
       <c r="X880" s="21" t="s">
@@ -65593,24 +65621,21 @@
         <v>907</v>
       </c>
     </row>
-    <row r="881" spans="1:29" ht="15">
-      <c r="A881" s="13" t="s">
-        <v>995</v>
+    <row r="881" spans="1:29">
+      <c r="A881" s="1" t="s">
+        <v>996</v>
       </c>
       <c r="D881" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="E881" s="9">
-        <v>43124</v>
+        <v>961</v>
       </c>
       <c r="F881" s="1" t="s">
         <v>962</v>
       </c>
       <c r="G881" s="1" t="s">
-        <v>977</v>
+        <v>997</v>
       </c>
       <c r="H881" s="1" t="s">
-        <v>977</v>
+        <v>997</v>
       </c>
       <c r="I881" s="1" t="s">
         <v>46</v>
@@ -65619,7 +65644,7 @@
         <v>907</v>
       </c>
       <c r="K881" s="10" t="s">
-        <v>48</v>
+        <v>964</v>
       </c>
       <c r="M881" s="1" t="s">
         <v>49</v>
@@ -65640,11 +65665,10 @@
         <v>965</v>
       </c>
       <c r="S881" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="T881" s="13"/>
+        <v>998</v>
+      </c>
       <c r="X881" s="21" t="s">
-        <v>54</v>
+        <v>907</v>
       </c>
       <c r="AA881" t="s">
         <v>907</v>
@@ -65655,7 +65679,7 @@
     </row>
     <row r="882" spans="1:29">
       <c r="A882" s="1" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="D882" s="1" t="s">
         <v>961</v>
@@ -65711,7 +65735,7 @@
     </row>
     <row r="883" spans="1:29">
       <c r="A883" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D883" s="1" t="s">
         <v>961</v>
@@ -65767,7 +65791,7 @@
     </row>
     <row r="884" spans="1:29">
       <c r="A884" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D884" s="1" t="s">
         <v>961</v>
@@ -65822,8 +65846,8 @@
       </c>
     </row>
     <row r="885" spans="1:29">
-      <c r="A885" s="1" t="s">
-        <v>1001</v>
+      <c r="A885" s="13" t="s">
+        <v>1002</v>
       </c>
       <c r="D885" s="1" t="s">
         <v>961</v>
@@ -65879,7 +65903,7 @@
     </row>
     <row r="886" spans="1:29">
       <c r="A886" s="13" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D886" s="1" t="s">
         <v>961</v>
@@ -65935,7 +65959,7 @@
     </row>
     <row r="887" spans="1:29">
       <c r="A887" s="13" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D887" s="1" t="s">
         <v>961</v>
@@ -65991,7 +66015,7 @@
     </row>
     <row r="888" spans="1:29">
       <c r="A888" s="13" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D888" s="1" t="s">
         <v>961</v>
@@ -66047,7 +66071,7 @@
     </row>
     <row r="889" spans="1:29">
       <c r="A889" s="13" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D889" s="1" t="s">
         <v>961</v>
@@ -66103,7 +66127,7 @@
     </row>
     <row r="890" spans="1:29">
       <c r="A890" s="13" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D890" s="1" t="s">
         <v>961</v>
@@ -66159,7 +66183,7 @@
     </row>
     <row r="891" spans="1:29">
       <c r="A891" s="13" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D891" s="1" t="s">
         <v>961</v>
@@ -66215,7 +66239,7 @@
     </row>
     <row r="892" spans="1:29">
       <c r="A892" s="13" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D892" s="1" t="s">
         <v>961</v>
@@ -66271,7 +66295,7 @@
     </row>
     <row r="893" spans="1:29">
       <c r="A893" s="13" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D893" s="1" t="s">
         <v>961</v>
@@ -66327,7 +66351,7 @@
     </row>
     <row r="894" spans="1:29">
       <c r="A894" s="13" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D894" s="1" t="s">
         <v>961</v>
@@ -66383,7 +66407,7 @@
     </row>
     <row r="895" spans="1:29">
       <c r="A895" s="13" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D895" s="1" t="s">
         <v>961</v>
@@ -66439,7 +66463,7 @@
     </row>
     <row r="896" spans="1:29">
       <c r="A896" s="13" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D896" s="1" t="s">
         <v>961</v>
@@ -66495,7 +66519,7 @@
     </row>
     <row r="897" spans="1:29">
       <c r="A897" s="13" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D897" s="1" t="s">
         <v>961</v>
@@ -66551,7 +66575,7 @@
     </row>
     <row r="898" spans="1:29">
       <c r="A898" s="13" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D898" s="1" t="s">
         <v>961</v>
@@ -66607,7 +66631,7 @@
     </row>
     <row r="899" spans="1:29">
       <c r="A899" s="13" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D899" s="1" t="s">
         <v>961</v>
@@ -66661,75 +66685,19 @@
         <v>907</v>
       </c>
     </row>
-    <row r="900" spans="1:29">
-      <c r="A900" s="13" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D900" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="F900" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="G900" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="H900" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="I900" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J900" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="K900" s="10" t="s">
-        <v>964</v>
-      </c>
-      <c r="M900" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N900" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="O900" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="P900" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="Q900" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="R900" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="S900" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="X900" s="21" t="s">
-        <v>907</v>
-      </c>
-      <c r="AA900" t="s">
-        <v>907</v>
-      </c>
-      <c r="AC900" s="11" t="s">
-        <v>907</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Wrong value, try again." sqref="R813:R900">
-      <formula1>"male,female,pooled male and female,neuter,hermaphrodite,intersex,not determined,missing,not applicable,not collected"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Wrong value, try again." sqref="T16:T36">
       <formula1>"aerobe,anaerobe,facultative,microaerophilic,microanaerobe,obligate aerobe,obligate anaerobe"</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Wrong value, try again." sqref="R813:R899">
+      <formula1>"male,female,pooled male and female,neuter,hermaphrodite,intersex,not determined,missing,not applicable,not collected"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
@@ -73670,7 +73638,7 @@
         <v>1020</v>
       </c>
       <c r="C577" t="str">
-        <f t="shared" ref="C577:C640" si="9">CONCATENATE(A577,"-",B577)</f>
+        <f t="shared" ref="C577:C629" si="9">CONCATENATE(A577,"-",B577)</f>
         <v>2D14295-Colon</v>
       </c>
     </row>

--- a/source_data/pigs_samples_IDs_for_NCBI.xlsx
+++ b/source_data/pigs_samples_IDs_for_NCBI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="MIMARKS.survey.host-associated." sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="A15" authorId="0">
@@ -3518,7 +3518,7 @@
     <t xml:space="preserve">Au14/MC9</t>
   </si>
   <si>
-    <t xml:space="preserve">18Ja24/ColiGuard_P3</t>
+    <t xml:space="preserve">18Ja24/ColiGuard_P03</t>
   </si>
   <si>
     <t xml:space="preserve">DPI</t>
@@ -3530,7 +3530,7 @@
     <t xml:space="preserve">ColiGuard</t>
   </si>
   <si>
-    <t xml:space="preserve">18Ja24/Protexin_P3</t>
+    <t xml:space="preserve">18Ja24/Protexin_P03</t>
   </si>
   <si>
     <t xml:space="preserve">Probiotic Protexin</t>
@@ -3539,40 +3539,40 @@
     <t xml:space="preserve">Protexin</t>
   </si>
   <si>
-    <t xml:space="preserve">18Ja24/Protexin_P4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18Ja24/ColiGuard_P4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18Ja24/Protexin_P5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18Ja24/ColiGuard_P5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18Ja24/ColiGuard_P6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18Ja24/Protexin_P6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18Ja24/Protexin_P7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18Ja24/ColiGuard_P7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18Ja24/Protexin_P8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18Ja24/ColiGuard_P8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18Ja24/Protexin_P9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18Ja24/ColiGuard_P9</t>
+    <t xml:space="preserve">18Ja24/Protexin_P04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18Ja24/ColiGuard_P04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18Ja24/Protexin_P05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18Ja24/ColiGuard_P05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18Ja24/ColiGuard_P06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18Ja24/Protexin_P06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18Ja24/Protexin_P07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18Ja24/ColiGuard_P07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18Ja24/Protexin_P08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18Ja24/ColiGuard_P08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18Ja24/Protexin_P09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18Ja24/ColiGuard_P09</t>
   </si>
   <si>
     <t xml:space="preserve">18Ja24/Protexin_P10</t>
@@ -3581,7 +3581,7 @@
     <t xml:space="preserve">18Ja24/ColiGuard_P10</t>
   </si>
   <si>
-    <t xml:space="preserve">NA/neg.control_P1</t>
+    <t xml:space="preserve">NA/neg.control_P01</t>
   </si>
   <si>
     <t xml:space="preserve">negative control</t>
@@ -3590,52 +3590,52 @@
     <t xml:space="preserve">NegativeControl</t>
   </si>
   <si>
-    <t xml:space="preserve">NA/neg.control_P1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA/neg.control_P2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA/neg.control_P2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA/neg.control_P3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA/neg.control_P3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA/neg.control_P4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA/neg.control_P4.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA/neg.control_P5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA/neg.control_P5.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA/neg.control_P6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA/neg.control_P7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA/neg.control_P7.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA/neg.control_P8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA/neg.control_P8.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA/neg.control_P9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA/neg.control_P9.2</t>
+    <t xml:space="preserve">NA/neg.control_P01.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA/neg.control_P02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA/neg.control_P02.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA/neg.control_P03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA/neg.control_P03.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA/neg.control_P04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA/neg.control_P04.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA/neg.control_P05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA/neg.control_P05.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA/neg.control_P06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA/neg.control_P07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA/neg.control_P07.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA/neg.control_P08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA/neg.control_P08.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA/neg.control_P09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA/neg.control_P09.2</t>
   </si>
   <si>
     <t xml:space="preserve">NA/neg.control_P10</t>
@@ -4224,7 +4224,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4273,43 +4273,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4337,22 +4305,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -4427,10 +4391,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4440,7 +4404,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17033760" cy="12699720"/>
+          <a:ext cx="13636080" cy="12699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4472,10 +4436,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4485,7 +4449,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17033760" cy="12699720"/>
+          <a:ext cx="13636080" cy="12699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4517,10 +4481,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4530,7 +4494,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17033760" cy="12699720"/>
+          <a:ext cx="13636080" cy="12699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4562,10 +4526,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4575,7 +4539,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17033760" cy="12699720"/>
+          <a:ext cx="13636080" cy="12699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4607,10 +4571,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4620,7 +4584,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17033760" cy="12699720"/>
+          <a:ext cx="13636080" cy="12699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4652,10 +4616,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4665,7 +4629,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17033760" cy="12699720"/>
+          <a:ext cx="13636080" cy="12699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4697,10 +4661,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4710,7 +4674,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17033760" cy="12699720"/>
+          <a:ext cx="13636080" cy="12699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4742,10 +4706,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4755,7 +4719,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17033760" cy="12699720"/>
+          <a:ext cx="13636080" cy="12699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4787,10 +4751,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4800,7 +4764,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17033760" cy="12699720"/>
+          <a:ext cx="13636080" cy="12699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4832,10 +4796,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4845,7 +4809,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17033760" cy="12699720"/>
+          <a:ext cx="13636080" cy="12699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4877,10 +4841,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4890,7 +4854,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17033760" cy="12699720"/>
+          <a:ext cx="13636080" cy="12699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4922,10 +4886,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4935,7 +4899,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17033760" cy="12699720"/>
+          <a:ext cx="13636080" cy="12699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4967,10 +4931,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4980,7 +4944,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17033760" cy="12699720"/>
+          <a:ext cx="13636080" cy="12699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5012,10 +4976,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5025,7 +4989,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17033760" cy="12699720"/>
+          <a:ext cx="13636080" cy="12699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5057,10 +5021,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5070,7 +5034,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17033760" cy="12699720"/>
+          <a:ext cx="13636080" cy="12699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5102,10 +5066,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5115,7 +5079,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17033760" cy="12699720"/>
+          <a:ext cx="13636080" cy="12699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5147,10 +5111,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5160,7 +5124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17033760" cy="12699720"/>
+          <a:ext cx="13636080" cy="12699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5192,10 +5156,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5205,7 +5169,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17033760" cy="12699720"/>
+          <a:ext cx="13636080" cy="12699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5237,10 +5201,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5250,7 +5214,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17033760" cy="12699720"/>
+          <a:ext cx="13636080" cy="12699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5282,10 +5246,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5295,7 +5259,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17033760" cy="12699720"/>
+          <a:ext cx="13636080" cy="12699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5327,10 +5291,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5340,7 +5304,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17033760" cy="12699720"/>
+          <a:ext cx="13636080" cy="12699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5372,10 +5336,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5385,7 +5349,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17033760" cy="12699720"/>
+          <a:ext cx="13636080" cy="12699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5417,10 +5381,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5430,7 +5394,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17033760" cy="12699720"/>
+          <a:ext cx="13636080" cy="12699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5462,10 +5426,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5475,7 +5439,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17033760" cy="12699720"/>
+          <a:ext cx="13636080" cy="12699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5507,10 +5471,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5520,7 +5484,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17033760" cy="12699720"/>
+          <a:ext cx="13636080" cy="12699360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5552,22 +5516,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:900"/>
+  <dimension ref="A1:AMJ900"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="15" topLeftCell="A850" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="M82" activeCellId="0" sqref="M82"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A884" activeCellId="0" sqref="A884"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="12" min="6" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="26" min="14" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.78542510121457"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="1" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="23.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="22.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="14" style="1" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="1" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.79"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14153,136 +14122,135 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="12" t="s">
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B139" s="13"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E139" s="15" t="n">
+      <c r="B139" s="12"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E139" s="9" t="n">
         <v>42766</v>
       </c>
-      <c r="F139" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G139" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H139" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I139" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J139" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="K139" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L139" s="13" t="n">
-        <v>91.1</v>
-      </c>
-      <c r="M139" s="14"/>
-      <c r="N139" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="O139" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="P139" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q139" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="R139" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="S139" s="17" t="n">
+      <c r="F139" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G139" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H139" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I139" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J139" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K139" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L139" s="12" t="n">
+        <v>91.1</v>
+      </c>
+      <c r="M139" s="13"/>
+      <c r="N139" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O139" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P139" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q139" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R139" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="S139" s="0" t="n">
         <v>14284</v>
       </c>
-      <c r="T139" s="14"/>
-      <c r="U139" s="14"/>
-      <c r="V139" s="14"/>
-      <c r="W139" s="14"/>
-      <c r="X139" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y139" s="14"/>
-      <c r="Z139" s="14"/>
-      <c r="AA139" s="17" t="s">
+      <c r="T139" s="13"/>
+      <c r="U139" s="13"/>
+      <c r="V139" s="13"/>
+      <c r="W139" s="13"/>
+      <c r="X139" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y139" s="13"/>
+      <c r="Z139" s="13"/>
+      <c r="AA139" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AC139" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AMJ139" s="0"/>
+      <c r="AC139" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B140" s="19"/>
-      <c r="C140" s="20"/>
-      <c r="D140" s="20" t="s">
+      <c r="B140" s="12"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E140" s="9" t="n">
         <v>42766</v>
       </c>
-      <c r="F140" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G140" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H140" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I140" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="J140" s="20" t="s">
+      <c r="F140" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G140" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H140" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I140" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J140" s="13" t="s">
         <v>47</v>
       </c>
       <c r="K140" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L140" s="19" t="n">
-        <v>91.1</v>
-      </c>
-      <c r="M140" s="20"/>
-      <c r="N140" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="O140" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="P140" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q140" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="R140" s="20" t="s">
+      <c r="L140" s="12" t="n">
+        <v>91.1</v>
+      </c>
+      <c r="M140" s="13"/>
+      <c r="N140" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O140" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P140" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q140" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R140" s="13" t="s">
         <v>52</v>
       </c>
       <c r="S140" s="0" t="n">
         <v>14192</v>
       </c>
-      <c r="T140" s="20"/>
-      <c r="U140" s="20"/>
-      <c r="V140" s="20"/>
-      <c r="W140" s="20"/>
+      <c r="T140" s="13"/>
+      <c r="U140" s="13"/>
+      <c r="V140" s="13"/>
+      <c r="W140" s="13"/>
       <c r="X140" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y140" s="20"/>
-      <c r="Z140" s="20"/>
+      <c r="Y140" s="13"/>
+      <c r="Z140" s="13"/>
       <c r="AA140" s="0" t="s">
         <v>143</v>
       </c>
@@ -14290,140 +14258,131 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="12" t="s">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B141" s="12"/>
-      <c r="C141" s="21"/>
-      <c r="D141" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E141" s="15" t="n">
+      <c r="B141" s="8"/>
+      <c r="D141" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E141" s="9" t="n">
         <v>42766</v>
       </c>
-      <c r="F141" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G141" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H141" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="I141" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J141" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="K141" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L141" s="17" t="n">
-        <v>91.1</v>
-      </c>
-      <c r="M141" s="21"/>
-      <c r="N141" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="O141" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="P141" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q141" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="R141" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="S141" s="17" t="n">
+      <c r="F141" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K141" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L141" s="0" t="n">
+        <v>91.1</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O141" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P141" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q141" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R141" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S141" s="0" t="n">
         <v>14274</v>
       </c>
-      <c r="T141" s="21"/>
-      <c r="U141" s="21"/>
-      <c r="V141" s="21"/>
-      <c r="W141" s="21"/>
-      <c r="X141" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y141" s="21"/>
-      <c r="Z141" s="21"/>
-      <c r="AA141" s="17" t="s">
+      <c r="X141" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA141" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="AC141" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AMJ141" s="0"/>
+      <c r="AC141" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="12" t="s">
+      <c r="A142" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B142" s="13"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E142" s="15" t="n">
+      <c r="B142" s="12"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E142" s="9" t="n">
         <v>42766</v>
       </c>
-      <c r="F142" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G142" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H142" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I142" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J142" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="K142" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L142" s="13" t="n">
-        <v>91.1</v>
-      </c>
-      <c r="M142" s="14"/>
-      <c r="N142" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="O142" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="P142" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q142" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="R142" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="S142" s="17" t="n">
+      <c r="F142" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G142" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H142" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I142" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J142" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K142" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L142" s="12" t="n">
+        <v>91.1</v>
+      </c>
+      <c r="M142" s="13"/>
+      <c r="N142" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O142" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P142" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q142" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R142" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="S142" s="0" t="n">
         <v>14274</v>
       </c>
-      <c r="T142" s="14"/>
-      <c r="U142" s="14"/>
-      <c r="V142" s="14"/>
-      <c r="W142" s="14"/>
-      <c r="X142" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y142" s="14"/>
-      <c r="Z142" s="14"/>
-      <c r="AA142" s="17" t="s">
+      <c r="T142" s="13"/>
+      <c r="U142" s="13"/>
+      <c r="V142" s="13"/>
+      <c r="W142" s="13"/>
+      <c r="X142" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y142" s="13"/>
+      <c r="Z142" s="13"/>
+      <c r="AA142" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="AC142" s="17" t="n">
+      <c r="AC142" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14551,63 +14510,63 @@
       <c r="A145" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B145" s="19"/>
-      <c r="C145" s="20"/>
-      <c r="D145" s="20" t="s">
+      <c r="B145" s="12"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E145" s="9" t="n">
         <v>42767</v>
       </c>
-      <c r="F145" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G145" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H145" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I145" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="J145" s="20" t="s">
+      <c r="F145" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G145" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H145" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I145" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J145" s="13" t="s">
         <v>47</v>
       </c>
       <c r="K145" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L145" s="19" t="n">
-        <v>91.1</v>
-      </c>
-      <c r="M145" s="20"/>
-      <c r="N145" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="O145" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="P145" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q145" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="R145" s="20" t="s">
+      <c r="L145" s="12" t="n">
+        <v>91.1</v>
+      </c>
+      <c r="M145" s="13"/>
+      <c r="N145" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O145" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P145" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q145" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R145" s="13" t="s">
         <v>52</v>
       </c>
       <c r="S145" s="0" t="n">
         <v>14162</v>
       </c>
-      <c r="T145" s="20"/>
-      <c r="U145" s="20"/>
-      <c r="V145" s="20"/>
-      <c r="W145" s="20"/>
+      <c r="T145" s="13"/>
+      <c r="U145" s="13"/>
+      <c r="V145" s="13"/>
+      <c r="W145" s="13"/>
       <c r="X145" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y145" s="20"/>
-      <c r="Z145" s="20"/>
+      <c r="Y145" s="13"/>
+      <c r="Z145" s="13"/>
       <c r="AA145" s="0" t="s">
         <v>123</v>
       </c>
@@ -17405,11 +17364,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C186" s="23"/>
+      <c r="C186" s="15"/>
       <c r="D186" s="1" t="s">
         <v>43</v>
       </c>
@@ -17455,19 +17414,19 @@
       <c r="R186" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S186" s="22" t="n">
+      <c r="S186" s="14" t="n">
         <v>29934</v>
       </c>
-      <c r="T186" s="23"/>
-      <c r="U186" s="23"/>
-      <c r="V186" s="23"/>
-      <c r="W186" s="23"/>
+      <c r="T186" s="15"/>
+      <c r="U186" s="15"/>
+      <c r="V186" s="15"/>
+      <c r="W186" s="15"/>
       <c r="X186" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y186" s="23"/>
-      <c r="Z186" s="23"/>
-      <c r="AA186" s="22" t="s">
+      <c r="Y186" s="15"/>
+      <c r="Z186" s="15"/>
+      <c r="AA186" s="14" t="s">
         <v>158</v>
       </c>
       <c r="AC186" s="0" t="n">
@@ -19143,76 +19102,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="12" t="s">
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="B211" s="13"/>
-      <c r="C211" s="14"/>
-      <c r="D211" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E211" s="15" t="n">
+      <c r="B211" s="12"/>
+      <c r="C211" s="13"/>
+      <c r="D211" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E211" s="9" t="n">
         <v>42773</v>
       </c>
-      <c r="F211" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G211" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H211" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I211" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J211" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="K211" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L211" s="13" t="n">
-        <v>91.1</v>
-      </c>
-      <c r="M211" s="21" t="s">
+      <c r="F211" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G211" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H211" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I211" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J211" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K211" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L211" s="12" t="n">
+        <v>91.1</v>
+      </c>
+      <c r="M211" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="N211" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="O211" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="P211" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q211" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="R211" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="S211" s="17" t="n">
+      <c r="N211" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O211" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P211" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q211" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R211" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="S211" s="0" t="n">
         <v>14271</v>
       </c>
-      <c r="T211" s="24"/>
-      <c r="U211" s="14"/>
-      <c r="V211" s="14"/>
-      <c r="W211" s="14"/>
-      <c r="X211" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y211" s="14"/>
-      <c r="Z211" s="14"/>
-      <c r="AA211" s="17" t="s">
+      <c r="T211" s="16"/>
+      <c r="U211" s="13"/>
+      <c r="V211" s="13"/>
+      <c r="W211" s="13"/>
+      <c r="X211" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y211" s="13"/>
+      <c r="Z211" s="13"/>
+      <c r="AA211" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="AC211" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AMJ211" s="0"/>
+      <c r="AC211" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="8" t="s">
@@ -19247,7 +19205,7 @@
       <c r="L212" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M212" s="21" t="s">
+      <c r="M212" s="1" t="s">
         <v>204</v>
       </c>
       <c r="N212" s="1" t="s">
@@ -19317,7 +19275,7 @@
       <c r="L213" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M213" s="21" t="s">
+      <c r="M213" s="1" t="s">
         <v>204</v>
       </c>
       <c r="N213" s="1" t="s">
@@ -19387,7 +19345,7 @@
       <c r="L214" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M214" s="21" t="s">
+      <c r="M214" s="1" t="s">
         <v>204</v>
       </c>
       <c r="N214" s="1" t="s">
@@ -19457,7 +19415,7 @@
       <c r="L215" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M215" s="21" t="s">
+      <c r="M215" s="1" t="s">
         <v>204</v>
       </c>
       <c r="N215" s="1" t="s">
@@ -19527,7 +19485,7 @@
       <c r="L216" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M216" s="21" t="s">
+      <c r="M216" s="1" t="s">
         <v>204</v>
       </c>
       <c r="N216" s="1" t="s">
@@ -19597,7 +19555,7 @@
       <c r="L217" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M217" s="21" t="s">
+      <c r="M217" s="1" t="s">
         <v>204</v>
       </c>
       <c r="N217" s="1" t="s">
@@ -19667,7 +19625,7 @@
       <c r="L218" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M218" s="21" t="s">
+      <c r="M218" s="1" t="s">
         <v>204</v>
       </c>
       <c r="N218" s="1" t="s">
@@ -19737,7 +19695,7 @@
       <c r="L219" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M219" s="21" t="s">
+      <c r="M219" s="1" t="s">
         <v>204</v>
       </c>
       <c r="N219" s="1" t="s">
@@ -19807,7 +19765,7 @@
       <c r="L220" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M220" s="21" t="s">
+      <c r="M220" s="1" t="s">
         <v>204</v>
       </c>
       <c r="N220" s="1" t="s">
@@ -19844,11 +19802,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C221" s="23"/>
+      <c r="C221" s="15"/>
       <c r="D221" s="1" t="s">
         <v>43</v>
       </c>
@@ -19876,7 +19834,7 @@
       <c r="L221" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M221" s="21" t="s">
+      <c r="M221" s="1" t="s">
         <v>204</v>
       </c>
       <c r="N221" s="1" t="s">
@@ -19894,19 +19852,19 @@
       <c r="R221" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S221" s="22" t="n">
+      <c r="S221" s="14" t="n">
         <v>29939</v>
       </c>
-      <c r="T221" s="23"/>
-      <c r="U221" s="23"/>
-      <c r="V221" s="23"/>
-      <c r="W221" s="23"/>
+      <c r="T221" s="15"/>
+      <c r="U221" s="15"/>
+      <c r="V221" s="15"/>
+      <c r="W221" s="15"/>
       <c r="X221" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y221" s="23"/>
-      <c r="Z221" s="23"/>
-      <c r="AA221" s="22" t="s">
+      <c r="Y221" s="15"/>
+      <c r="Z221" s="15"/>
+      <c r="AA221" s="14" t="s">
         <v>61</v>
       </c>
       <c r="AC221" s="0" t="n">
@@ -19947,7 +19905,7 @@
       <c r="L222" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M222" s="21" t="s">
+      <c r="M222" s="1" t="s">
         <v>204</v>
       </c>
       <c r="N222" s="1" t="s">
@@ -20017,7 +19975,7 @@
       <c r="L223" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M223" s="21" t="s">
+      <c r="M223" s="1" t="s">
         <v>204</v>
       </c>
       <c r="N223" s="1" t="s">
@@ -20087,7 +20045,7 @@
       <c r="L224" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M224" s="21" t="s">
+      <c r="M224" s="1" t="s">
         <v>204</v>
       </c>
       <c r="N224" s="1" t="s">
@@ -20157,7 +20115,7 @@
       <c r="L225" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M225" s="21" t="s">
+      <c r="M225" s="1" t="s">
         <v>204</v>
       </c>
       <c r="N225" s="1" t="s">
@@ -20227,7 +20185,7 @@
       <c r="L226" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M226" s="21" t="s">
+      <c r="M226" s="1" t="s">
         <v>204</v>
       </c>
       <c r="N226" s="1" t="s">
@@ -20297,7 +20255,7 @@
       <c r="L227" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M227" s="21" t="s">
+      <c r="M227" s="1" t="s">
         <v>204</v>
       </c>
       <c r="N227" s="1" t="s">
@@ -20367,7 +20325,7 @@
       <c r="L228" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M228" s="21" t="s">
+      <c r="M228" s="1" t="s">
         <v>204</v>
       </c>
       <c r="N228" s="1" t="s">
@@ -20437,7 +20395,7 @@
       <c r="L229" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M229" s="21" t="s">
+      <c r="M229" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N229" s="1" t="s">
@@ -20507,7 +20465,7 @@
       <c r="L230" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M230" s="21" t="s">
+      <c r="M230" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N230" s="1" t="s">
@@ -20577,7 +20535,7 @@
       <c r="L231" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M231" s="21" t="s">
+      <c r="M231" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N231" s="1" t="s">
@@ -20647,7 +20605,7 @@
       <c r="L232" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M232" s="21" t="s">
+      <c r="M232" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N232" s="1" t="s">
@@ -20717,7 +20675,7 @@
       <c r="L233" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M233" s="21" t="s">
+      <c r="M233" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N233" s="1" t="s">
@@ -20787,7 +20745,7 @@
       <c r="L234" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M234" s="21" t="s">
+      <c r="M234" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N234" s="1" t="s">
@@ -20857,7 +20815,7 @@
       <c r="L235" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M235" s="21" t="s">
+      <c r="M235" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N235" s="1" t="s">
@@ -20927,7 +20885,7 @@
       <c r="L236" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M236" s="21" t="s">
+      <c r="M236" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N236" s="1" t="s">
@@ -20997,7 +20955,7 @@
       <c r="L237" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M237" s="21" t="s">
+      <c r="M237" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N237" s="1" t="s">
@@ -21067,7 +21025,7 @@
       <c r="L238" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M238" s="21" t="s">
+      <c r="M238" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N238" s="1" t="s">
@@ -21137,7 +21095,7 @@
       <c r="L239" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M239" s="21" t="s">
+      <c r="M239" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N239" s="1" t="s">
@@ -21207,7 +21165,7 @@
       <c r="L240" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M240" s="21" t="s">
+      <c r="M240" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N240" s="1" t="s">
@@ -21277,7 +21235,7 @@
       <c r="L241" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M241" s="21" t="s">
+      <c r="M241" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N241" s="1" t="s">
@@ -21347,7 +21305,7 @@
       <c r="L242" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M242" s="21" t="s">
+      <c r="M242" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N242" s="1" t="s">
@@ -21417,7 +21375,7 @@
       <c r="L243" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M243" s="21" t="s">
+      <c r="M243" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N243" s="1" t="s">
@@ -21487,7 +21445,7 @@
       <c r="L244" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M244" s="21" t="s">
+      <c r="M244" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N244" s="1" t="s">
@@ -21557,7 +21515,7 @@
       <c r="L245" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M245" s="21" t="s">
+      <c r="M245" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N245" s="1" t="s">
@@ -21627,7 +21585,7 @@
       <c r="L246" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M246" s="21" t="s">
+      <c r="M246" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N246" s="1" t="s">
@@ -22434,11 +22392,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="C258" s="23"/>
+      <c r="C258" s="15"/>
       <c r="D258" s="1" t="s">
         <v>43</v>
       </c>
@@ -22484,19 +22442,19 @@
       <c r="R258" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S258" s="22" t="n">
+      <c r="S258" s="14" t="n">
         <v>14201</v>
       </c>
-      <c r="T258" s="23"/>
-      <c r="U258" s="23"/>
-      <c r="V258" s="23"/>
-      <c r="W258" s="23"/>
+      <c r="T258" s="15"/>
+      <c r="U258" s="15"/>
+      <c r="V258" s="15"/>
+      <c r="W258" s="15"/>
       <c r="X258" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y258" s="23"/>
-      <c r="Z258" s="23"/>
-      <c r="AA258" s="22" t="s">
+      <c r="Y258" s="15"/>
+      <c r="Z258" s="15"/>
+      <c r="AA258" s="14" t="s">
         <v>311</v>
       </c>
       <c r="AC258" s="0" t="n">
@@ -24814,11 +24772,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C292" s="23"/>
+      <c r="C292" s="15"/>
       <c r="D292" s="1" t="s">
         <v>43</v>
       </c>
@@ -24864,19 +24822,19 @@
       <c r="R292" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S292" s="22" t="n">
+      <c r="S292" s="14" t="n">
         <v>14171</v>
       </c>
-      <c r="T292" s="23"/>
-      <c r="U292" s="23"/>
-      <c r="V292" s="23"/>
-      <c r="W292" s="23"/>
+      <c r="T292" s="15"/>
+      <c r="U292" s="15"/>
+      <c r="V292" s="15"/>
+      <c r="W292" s="15"/>
       <c r="X292" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y292" s="23"/>
-      <c r="Z292" s="23"/>
-      <c r="AA292" s="22" t="s">
+      <c r="Y292" s="15"/>
+      <c r="Z292" s="15"/>
+      <c r="AA292" s="14" t="s">
         <v>349</v>
       </c>
       <c r="AC292" s="0" t="n">
@@ -26120,11 +26078,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="C311" s="23"/>
+      <c r="C311" s="15"/>
       <c r="D311" s="1" t="s">
         <v>43</v>
       </c>
@@ -26168,19 +26126,19 @@
       <c r="R311" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S311" s="22" t="n">
+      <c r="S311" s="14" t="n">
         <v>29847</v>
       </c>
-      <c r="T311" s="23"/>
-      <c r="U311" s="23"/>
-      <c r="V311" s="23"/>
-      <c r="W311" s="23"/>
+      <c r="T311" s="15"/>
+      <c r="U311" s="15"/>
+      <c r="V311" s="15"/>
+      <c r="W311" s="15"/>
       <c r="X311" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y311" s="23"/>
-      <c r="Z311" s="23"/>
-      <c r="AA311" s="22" t="s">
+      <c r="Y311" s="15"/>
+      <c r="Z311" s="15"/>
+      <c r="AA311" s="14" t="s">
         <v>143</v>
       </c>
       <c r="AC311" s="0" t="n">
@@ -26532,65 +26490,65 @@
       <c r="A317" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="B317" s="22"/>
-      <c r="C317" s="23"/>
-      <c r="D317" s="20" t="s">
+      <c r="B317" s="14"/>
+      <c r="C317" s="15"/>
+      <c r="D317" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E317" s="9" t="n">
         <v>42773</v>
       </c>
-      <c r="F317" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G317" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H317" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I317" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="J317" s="20" t="s">
+      <c r="F317" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G317" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H317" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I317" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J317" s="13" t="s">
         <v>47</v>
       </c>
       <c r="K317" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L317" s="19" t="n">
-        <v>91.1</v>
-      </c>
-      <c r="M317" s="20" t="s">
+      <c r="L317" s="12" t="n">
+        <v>91.1</v>
+      </c>
+      <c r="M317" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="N317" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="O317" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="P317" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q317" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="R317" s="20" t="s">
+      <c r="N317" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O317" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P317" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q317" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R317" s="13" t="s">
         <v>52</v>
       </c>
       <c r="S317" s="0" t="n">
         <v>14260</v>
       </c>
-      <c r="T317" s="23"/>
-      <c r="U317" s="23"/>
-      <c r="V317" s="23"/>
-      <c r="W317" s="23"/>
+      <c r="T317" s="15"/>
+      <c r="U317" s="15"/>
+      <c r="V317" s="15"/>
+      <c r="W317" s="15"/>
       <c r="X317" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y317" s="23"/>
-      <c r="Z317" s="23"/>
+      <c r="Y317" s="15"/>
+      <c r="Z317" s="15"/>
       <c r="AA317" s="0" t="s">
         <v>349</v>
       </c>
@@ -26598,147 +26556,145 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="12" t="s">
+    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="B318" s="13"/>
-      <c r="C318" s="14"/>
-      <c r="D318" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E318" s="15" t="n">
+      <c r="B318" s="12"/>
+      <c r="C318" s="13"/>
+      <c r="D318" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E318" s="9" t="n">
         <v>42774</v>
       </c>
-      <c r="F318" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G318" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H318" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I318" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J318" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="K318" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L318" s="13" t="n">
-        <v>91.1</v>
-      </c>
-      <c r="M318" s="14" t="s">
+      <c r="F318" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G318" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H318" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I318" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J318" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K318" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L318" s="12" t="n">
+        <v>91.1</v>
+      </c>
+      <c r="M318" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N318" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="O318" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="P318" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q318" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="R318" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="S318" s="17" t="n">
+      <c r="N318" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O318" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P318" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q318" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R318" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="S318" s="0" t="n">
         <v>14317</v>
       </c>
-      <c r="T318" s="14"/>
-      <c r="U318" s="14"/>
-      <c r="V318" s="14"/>
-      <c r="W318" s="14"/>
-      <c r="X318" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y318" s="14"/>
-      <c r="Z318" s="14"/>
-      <c r="AA318" s="17" t="s">
+      <c r="T318" s="13"/>
+      <c r="U318" s="13"/>
+      <c r="V318" s="13"/>
+      <c r="W318" s="13"/>
+      <c r="X318" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y318" s="13"/>
+      <c r="Z318" s="13"/>
+      <c r="AA318" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="AC318" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AMJ318" s="0"/>
-    </row>
-    <row r="319" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="12" t="s">
+      <c r="AC318" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="B319" s="13"/>
-      <c r="C319" s="14"/>
-      <c r="D319" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E319" s="15" t="n">
+      <c r="B319" s="12"/>
+      <c r="C319" s="13"/>
+      <c r="D319" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E319" s="9" t="n">
         <v>42774</v>
       </c>
-      <c r="F319" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G319" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H319" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I319" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J319" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="K319" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L319" s="13" t="n">
-        <v>91.1</v>
-      </c>
-      <c r="M319" s="14" t="s">
+      <c r="F319" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G319" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H319" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I319" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J319" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K319" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L319" s="12" t="n">
+        <v>91.1</v>
+      </c>
+      <c r="M319" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="N319" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="O319" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="P319" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q319" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="R319" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="S319" s="17" t="n">
+      <c r="N319" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O319" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P319" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q319" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R319" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="S319" s="0" t="n">
         <v>29924</v>
       </c>
-      <c r="T319" s="14"/>
-      <c r="U319" s="14"/>
-      <c r="V319" s="14"/>
-      <c r="W319" s="14"/>
-      <c r="X319" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y319" s="14"/>
-      <c r="Z319" s="14"/>
-      <c r="AA319" s="17" t="s">
+      <c r="T319" s="13"/>
+      <c r="U319" s="13"/>
+      <c r="V319" s="13"/>
+      <c r="W319" s="13"/>
+      <c r="X319" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y319" s="13"/>
+      <c r="Z319" s="13"/>
+      <c r="AA319" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AC319" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AMJ319" s="0"/>
+      <c r="AC319" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="8" t="s">
@@ -26796,7 +26752,7 @@
       <c r="U320" s="0"/>
       <c r="V320" s="0"/>
       <c r="W320" s="0"/>
-      <c r="X320" s="25"/>
+      <c r="X320" s="17"/>
       <c r="Y320" s="0"/>
       <c r="Z320" s="0"/>
       <c r="AA320" s="0" t="s">
@@ -26806,147 +26762,145 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="12" t="s">
+    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="B321" s="13"/>
-      <c r="C321" s="14"/>
-      <c r="D321" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E321" s="15" t="n">
+      <c r="B321" s="12"/>
+      <c r="C321" s="13"/>
+      <c r="D321" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E321" s="9" t="n">
         <v>42774</v>
       </c>
-      <c r="F321" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G321" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H321" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I321" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J321" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="K321" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L321" s="13" t="n">
-        <v>91.1</v>
-      </c>
-      <c r="M321" s="14" t="s">
+      <c r="F321" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G321" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H321" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I321" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J321" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K321" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L321" s="12" t="n">
+        <v>91.1</v>
+      </c>
+      <c r="M321" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N321" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="O321" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="P321" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q321" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="R321" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="S321" s="17" t="n">
+      <c r="N321" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O321" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P321" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q321" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R321" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="S321" s="0" t="n">
         <v>29875</v>
       </c>
-      <c r="T321" s="14"/>
-      <c r="U321" s="14"/>
-      <c r="V321" s="14"/>
-      <c r="W321" s="14"/>
-      <c r="X321" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y321" s="14"/>
-      <c r="Z321" s="14"/>
-      <c r="AA321" s="17" t="s">
+      <c r="T321" s="13"/>
+      <c r="U321" s="13"/>
+      <c r="V321" s="13"/>
+      <c r="W321" s="13"/>
+      <c r="X321" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y321" s="13"/>
+      <c r="Z321" s="13"/>
+      <c r="AA321" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="AC321" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AMJ321" s="0"/>
-    </row>
-    <row r="322" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="12" t="s">
+      <c r="AC321" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="B322" s="13"/>
-      <c r="C322" s="14"/>
-      <c r="D322" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E322" s="15" t="n">
+      <c r="B322" s="12"/>
+      <c r="C322" s="13"/>
+      <c r="D322" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E322" s="9" t="n">
         <v>42776</v>
       </c>
-      <c r="F322" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G322" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H322" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I322" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J322" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="K322" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L322" s="13" t="n">
-        <v>91.1</v>
-      </c>
-      <c r="M322" s="14" t="s">
+      <c r="F322" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G322" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H322" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I322" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J322" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K322" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L322" s="12" t="n">
+        <v>91.1</v>
+      </c>
+      <c r="M322" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N322" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="O322" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="P322" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q322" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="R322" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="S322" s="17" t="n">
+      <c r="N322" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O322" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P322" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q322" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R322" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="S322" s="0" t="n">
         <v>14262</v>
       </c>
-      <c r="T322" s="14"/>
-      <c r="U322" s="14"/>
-      <c r="V322" s="14"/>
-      <c r="W322" s="14"/>
-      <c r="X322" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y322" s="14"/>
-      <c r="Z322" s="14"/>
-      <c r="AA322" s="17" t="s">
+      <c r="T322" s="13"/>
+      <c r="U322" s="13"/>
+      <c r="V322" s="13"/>
+      <c r="W322" s="13"/>
+      <c r="X322" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y322" s="13"/>
+      <c r="Z322" s="13"/>
+      <c r="AA322" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="AC322" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AMJ322" s="0"/>
+      <c r="AC322" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="8" t="s">
@@ -27541,7 +27495,7 @@
       <c r="L331" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M331" s="14" t="s">
+      <c r="M331" s="13" t="s">
         <v>213</v>
       </c>
       <c r="N331" s="1" t="s">
@@ -27611,7 +27565,7 @@
       <c r="L332" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M332" s="14" t="s">
+      <c r="M332" s="13" t="s">
         <v>213</v>
       </c>
       <c r="N332" s="1" t="s">
@@ -27681,7 +27635,7 @@
       <c r="L333" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M333" s="14" t="s">
+      <c r="M333" s="13" t="s">
         <v>213</v>
       </c>
       <c r="N333" s="1" t="s">
@@ -27751,7 +27705,7 @@
       <c r="L334" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M334" s="14" t="s">
+      <c r="M334" s="13" t="s">
         <v>213</v>
       </c>
       <c r="N334" s="1" t="s">
@@ -27821,7 +27775,7 @@
       <c r="L335" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M335" s="14" t="s">
+      <c r="M335" s="13" t="s">
         <v>213</v>
       </c>
       <c r="N335" s="1" t="s">
@@ -27891,7 +27845,7 @@
       <c r="L336" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M336" s="14" t="s">
+      <c r="M336" s="13" t="s">
         <v>213</v>
       </c>
       <c r="N336" s="1" t="s">
@@ -27961,7 +27915,7 @@
       <c r="L337" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M337" s="14" t="s">
+      <c r="M337" s="13" t="s">
         <v>213</v>
       </c>
       <c r="N337" s="1" t="s">
@@ -28031,7 +27985,7 @@
       <c r="L338" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M338" s="14" t="s">
+      <c r="M338" s="13" t="s">
         <v>213</v>
       </c>
       <c r="N338" s="1" t="s">
@@ -28101,7 +28055,7 @@
       <c r="L339" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M339" s="14" t="s">
+      <c r="M339" s="13" t="s">
         <v>213</v>
       </c>
       <c r="N339" s="1" t="s">
@@ -28171,7 +28125,7 @@
       <c r="L340" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M340" s="14" t="s">
+      <c r="M340" s="13" t="s">
         <v>213</v>
       </c>
       <c r="N340" s="1" t="s">
@@ -28241,7 +28195,7 @@
       <c r="L341" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M341" s="14" t="s">
+      <c r="M341" s="13" t="s">
         <v>213</v>
       </c>
       <c r="N341" s="1" t="s">
@@ -28311,7 +28265,7 @@
       <c r="L342" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M342" s="14" t="s">
+      <c r="M342" s="13" t="s">
         <v>213</v>
       </c>
       <c r="N342" s="1" t="s">
@@ -28381,7 +28335,7 @@
       <c r="L343" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M343" s="14" t="s">
+      <c r="M343" s="13" t="s">
         <v>213</v>
       </c>
       <c r="N343" s="1" t="s">
@@ -28451,7 +28405,7 @@
       <c r="L344" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M344" s="14" t="s">
+      <c r="M344" s="13" t="s">
         <v>213</v>
       </c>
       <c r="N344" s="1" t="s">
@@ -28521,7 +28475,7 @@
       <c r="L345" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M345" s="14" t="s">
+      <c r="M345" s="13" t="s">
         <v>213</v>
       </c>
       <c r="N345" s="1" t="s">
@@ -28591,7 +28545,7 @@
       <c r="L346" s="0" t="n">
         <v>91.1</v>
       </c>
-      <c r="M346" s="14" t="s">
+      <c r="M346" s="13" t="s">
         <v>213</v>
       </c>
       <c r="N346" s="1" t="s">
@@ -29398,11 +29352,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="C358" s="23"/>
+      <c r="C358" s="15"/>
       <c r="D358" s="1" t="s">
         <v>43</v>
       </c>
@@ -29448,19 +29402,19 @@
       <c r="R358" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S358" s="22" t="n">
+      <c r="S358" s="14" t="n">
         <v>14260</v>
       </c>
-      <c r="T358" s="23"/>
-      <c r="U358" s="23"/>
-      <c r="V358" s="23"/>
-      <c r="W358" s="23"/>
+      <c r="T358" s="15"/>
+      <c r="U358" s="15"/>
+      <c r="V358" s="15"/>
+      <c r="W358" s="15"/>
       <c r="X358" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y358" s="23"/>
-      <c r="Z358" s="23"/>
-      <c r="AA358" s="22" t="s">
+      <c r="Y358" s="15"/>
+      <c r="Z358" s="15"/>
+      <c r="AA358" s="14" t="s">
         <v>349</v>
       </c>
       <c r="AC358" s="0" t="n">
@@ -30852,69 +30806,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="26" t="s">
+    <row r="379" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="C379" s="23"/>
-      <c r="D379" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E379" s="27" t="n">
+      <c r="C379" s="15"/>
+      <c r="D379" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E379" s="19" t="n">
         <v>42780</v>
       </c>
-      <c r="F379" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G379" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H379" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="I379" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="J379" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="K379" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="L379" s="22" t="n">
+      <c r="F379" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G379" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H379" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I379" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J379" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K379" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L379" s="14" t="n">
         <v>91.1</v>
       </c>
       <c r="M379" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="N379" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="O379" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="P379" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q379" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="R379" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="S379" s="22" t="n">
+      <c r="N379" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O379" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P379" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q379" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="R379" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="S379" s="14" t="n">
         <v>29665</v>
       </c>
-      <c r="T379" s="23"/>
-      <c r="U379" s="23"/>
-      <c r="V379" s="23"/>
-      <c r="W379" s="23"/>
+      <c r="T379" s="15"/>
+      <c r="U379" s="15"/>
+      <c r="V379" s="15"/>
+      <c r="W379" s="15"/>
       <c r="X379" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y379" s="23"/>
-      <c r="Z379" s="23"/>
-      <c r="AA379" s="22" t="s">
+      <c r="Y379" s="15"/>
+      <c r="Z379" s="15"/>
+      <c r="AA379" s="14" t="s">
         <v>61</v>
       </c>
       <c r="AC379" s="0" t="n">
@@ -32672,11 +32626,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="C405" s="23"/>
+      <c r="C405" s="15"/>
       <c r="D405" s="1" t="s">
         <v>43</v>
       </c>
@@ -32722,19 +32676,19 @@
       <c r="R405" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S405" s="22" t="n">
+      <c r="S405" s="14" t="n">
         <v>14273</v>
       </c>
-      <c r="T405" s="23"/>
-      <c r="U405" s="23"/>
-      <c r="V405" s="23"/>
-      <c r="W405" s="23"/>
+      <c r="T405" s="15"/>
+      <c r="U405" s="15"/>
+      <c r="V405" s="15"/>
+      <c r="W405" s="15"/>
       <c r="X405" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y405" s="23"/>
-      <c r="Z405" s="23"/>
-      <c r="AA405" s="22" t="s">
+      <c r="Y405" s="15"/>
+      <c r="Z405" s="15"/>
+      <c r="AA405" s="14" t="s">
         <v>102</v>
       </c>
       <c r="AC405" s="0" t="n">
@@ -35122,11 +35076,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="C440" s="23"/>
+      <c r="C440" s="15"/>
       <c r="D440" s="1" t="s">
         <v>43</v>
       </c>
@@ -35172,19 +35126,19 @@
       <c r="R440" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S440" s="22" t="n">
+      <c r="S440" s="14" t="n">
         <v>14231</v>
       </c>
-      <c r="T440" s="23"/>
-      <c r="U440" s="23"/>
-      <c r="V440" s="23"/>
-      <c r="W440" s="23"/>
+      <c r="T440" s="15"/>
+      <c r="U440" s="15"/>
+      <c r="V440" s="15"/>
+      <c r="W440" s="15"/>
       <c r="X440" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y440" s="23"/>
-      <c r="Z440" s="23"/>
-      <c r="AA440" s="22" t="s">
+      <c r="Y440" s="15"/>
+      <c r="Z440" s="15"/>
+      <c r="AA440" s="14" t="s">
         <v>123</v>
       </c>
       <c r="AC440" s="0" t="n">
@@ -39880,67 +39834,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="26" t="s">
+    <row r="509" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="C509" s="23"/>
-      <c r="D509" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E509" s="27" t="n">
+      <c r="C509" s="15"/>
+      <c r="D509" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E509" s="19" t="n">
         <v>42787</v>
       </c>
-      <c r="F509" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G509" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H509" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="I509" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="J509" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="K509" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="L509" s="22" t="n">
-        <v>91.1</v>
-      </c>
-      <c r="M509" s="23"/>
-      <c r="N509" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="O509" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="P509" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q509" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="R509" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="S509" s="22" t="n">
+      <c r="F509" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G509" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H509" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I509" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J509" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K509" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L509" s="14" t="n">
+        <v>91.1</v>
+      </c>
+      <c r="M509" s="15"/>
+      <c r="N509" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O509" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P509" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q509" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="R509" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="S509" s="14" t="n">
         <v>29665</v>
       </c>
-      <c r="T509" s="23"/>
-      <c r="U509" s="23"/>
-      <c r="V509" s="23"/>
-      <c r="W509" s="23"/>
+      <c r="T509" s="15"/>
+      <c r="U509" s="15"/>
+      <c r="V509" s="15"/>
+      <c r="W509" s="15"/>
       <c r="X509" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y509" s="23"/>
-      <c r="Z509" s="23"/>
-      <c r="AA509" s="22" t="s">
+      <c r="Y509" s="15"/>
+      <c r="Z509" s="15"/>
+      <c r="AA509" s="14" t="s">
         <v>61</v>
       </c>
       <c r="AC509" s="0" t="n">
@@ -41580,67 +41534,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="26" t="s">
+    <row r="534" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="18" t="s">
         <v>596</v>
       </c>
-      <c r="C534" s="23"/>
-      <c r="D534" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E534" s="27" t="n">
+      <c r="C534" s="15"/>
+      <c r="D534" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E534" s="19" t="n">
         <v>42787</v>
       </c>
-      <c r="F534" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G534" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H534" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="I534" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="J534" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="K534" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="L534" s="22" t="n">
-        <v>91.1</v>
-      </c>
-      <c r="M534" s="23"/>
-      <c r="N534" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="O534" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="P534" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q534" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="R534" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="S534" s="22" t="n">
+      <c r="F534" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G534" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H534" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I534" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J534" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K534" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L534" s="14" t="n">
+        <v>91.1</v>
+      </c>
+      <c r="M534" s="15"/>
+      <c r="N534" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O534" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P534" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q534" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="R534" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="S534" s="14" t="n">
         <v>29865</v>
       </c>
-      <c r="T534" s="23"/>
-      <c r="U534" s="23"/>
-      <c r="V534" s="23"/>
-      <c r="W534" s="23"/>
+      <c r="T534" s="15"/>
+      <c r="U534" s="15"/>
+      <c r="V534" s="15"/>
+      <c r="W534" s="15"/>
       <c r="X534" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y534" s="23"/>
-      <c r="Z534" s="23"/>
-      <c r="AA534" s="22" t="s">
+      <c r="Y534" s="15"/>
+      <c r="Z534" s="15"/>
+      <c r="AA534" s="14" t="s">
         <v>311</v>
       </c>
       <c r="AC534" s="0" t="n">
@@ -43620,11 +43574,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="C564" s="23"/>
+      <c r="C564" s="15"/>
       <c r="D564" s="1" t="s">
         <v>43</v>
       </c>
@@ -43668,19 +43622,19 @@
       <c r="R564" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S564" s="22" t="n">
+      <c r="S564" s="14" t="n">
         <v>29668</v>
       </c>
-      <c r="T564" s="23"/>
-      <c r="U564" s="23"/>
-      <c r="V564" s="23"/>
-      <c r="W564" s="23"/>
+      <c r="T564" s="15"/>
+      <c r="U564" s="15"/>
+      <c r="V564" s="15"/>
+      <c r="W564" s="15"/>
       <c r="X564" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y564" s="23"/>
-      <c r="Z564" s="23"/>
-      <c r="AA564" s="22" t="s">
+      <c r="Y564" s="15"/>
+      <c r="Z564" s="15"/>
+      <c r="AA564" s="14" t="s">
         <v>129</v>
       </c>
       <c r="AC564" s="0" t="n">
@@ -44504,67 +44458,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="26" t="s">
+    <row r="577" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A577" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="C577" s="23"/>
-      <c r="D577" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E577" s="27" t="n">
+      <c r="C577" s="15"/>
+      <c r="D577" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E577" s="19" t="n">
         <v>42790</v>
       </c>
-      <c r="F577" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G577" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H577" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="I577" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="J577" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="K577" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="L577" s="22" t="n">
-        <v>91.1</v>
-      </c>
-      <c r="M577" s="23"/>
-      <c r="N577" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="O577" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="P577" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q577" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="R577" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="S577" s="22" t="n">
+      <c r="F577" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G577" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H577" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I577" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J577" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K577" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L577" s="14" t="n">
+        <v>91.1</v>
+      </c>
+      <c r="M577" s="15"/>
+      <c r="N577" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O577" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P577" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q577" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="R577" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="S577" s="14" t="n">
         <v>29665</v>
       </c>
-      <c r="T577" s="23"/>
-      <c r="U577" s="23"/>
-      <c r="V577" s="23"/>
-      <c r="W577" s="23"/>
+      <c r="T577" s="15"/>
+      <c r="U577" s="15"/>
+      <c r="V577" s="15"/>
+      <c r="W577" s="15"/>
       <c r="X577" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y577" s="23"/>
-      <c r="Z577" s="23"/>
-      <c r="AA577" s="22" t="s">
+      <c r="Y577" s="15"/>
+      <c r="Z577" s="15"/>
+      <c r="AA577" s="14" t="s">
         <v>61</v>
       </c>
       <c r="AC577" s="0" t="n">
@@ -45728,67 +45682,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="26" t="s">
+    <row r="595" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A595" s="18" t="s">
         <v>657</v>
       </c>
-      <c r="C595" s="23"/>
-      <c r="D595" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E595" s="27" t="n">
+      <c r="C595" s="15"/>
+      <c r="D595" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E595" s="19" t="n">
         <v>42790</v>
       </c>
-      <c r="F595" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G595" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H595" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="I595" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="J595" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="K595" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="L595" s="22" t="n">
-        <v>91.1</v>
-      </c>
-      <c r="M595" s="23"/>
-      <c r="N595" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="O595" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="P595" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q595" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="R595" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="S595" s="22" t="n">
+      <c r="F595" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G595" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H595" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I595" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J595" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K595" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L595" s="14" t="n">
+        <v>91.1</v>
+      </c>
+      <c r="M595" s="15"/>
+      <c r="N595" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O595" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P595" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q595" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="R595" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="S595" s="14" t="n">
         <v>29865</v>
       </c>
-      <c r="T595" s="23"/>
-      <c r="U595" s="23"/>
-      <c r="V595" s="23"/>
-      <c r="W595" s="23"/>
+      <c r="T595" s="15"/>
+      <c r="U595" s="15"/>
+      <c r="V595" s="15"/>
+      <c r="W595" s="15"/>
       <c r="X595" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y595" s="23"/>
-      <c r="Z595" s="23"/>
-      <c r="AA595" s="22" t="s">
+      <c r="Y595" s="15"/>
+      <c r="Z595" s="15"/>
+      <c r="AA595" s="14" t="s">
         <v>311</v>
       </c>
       <c r="AC595" s="0" t="n">
@@ -46612,11 +46566,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="8" t="s">
         <v>670</v>
       </c>
-      <c r="C608" s="23"/>
+      <c r="C608" s="15"/>
       <c r="D608" s="1" t="s">
         <v>43</v>
       </c>
@@ -46660,19 +46614,19 @@
       <c r="R608" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S608" s="22" t="n">
+      <c r="S608" s="14" t="n">
         <v>29702</v>
       </c>
-      <c r="T608" s="23"/>
-      <c r="U608" s="23"/>
-      <c r="V608" s="23"/>
-      <c r="W608" s="23"/>
+      <c r="T608" s="15"/>
+      <c r="U608" s="15"/>
+      <c r="V608" s="15"/>
+      <c r="W608" s="15"/>
       <c r="X608" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y608" s="23"/>
-      <c r="Z608" s="23"/>
-      <c r="AA608" s="22" t="s">
+      <c r="Y608" s="15"/>
+      <c r="Z608" s="15"/>
+      <c r="AA608" s="14" t="s">
         <v>349</v>
       </c>
       <c r="AC608" s="0" t="n">
@@ -48040,67 +47994,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="26" t="s">
+    <row r="629" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A629" s="18" t="s">
         <v>691</v>
       </c>
-      <c r="C629" s="23"/>
-      <c r="D629" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E629" s="27" t="n">
+      <c r="C629" s="15"/>
+      <c r="D629" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E629" s="19" t="n">
         <v>42794</v>
       </c>
-      <c r="F629" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G629" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H629" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="I629" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="J629" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="K629" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="L629" s="22" t="n">
-        <v>91.1</v>
-      </c>
-      <c r="M629" s="23"/>
-      <c r="N629" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="O629" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="P629" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q629" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="R629" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="S629" s="22" t="n">
+      <c r="F629" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G629" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H629" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I629" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J629" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K629" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L629" s="14" t="n">
+        <v>91.1</v>
+      </c>
+      <c r="M629" s="15"/>
+      <c r="N629" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O629" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P629" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q629" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="R629" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="S629" s="14" t="n">
         <v>29665</v>
       </c>
-      <c r="T629" s="23"/>
-      <c r="U629" s="23"/>
-      <c r="V629" s="23"/>
-      <c r="W629" s="23"/>
+      <c r="T629" s="15"/>
+      <c r="U629" s="15"/>
+      <c r="V629" s="15"/>
+      <c r="W629" s="15"/>
       <c r="X629" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y629" s="23"/>
-      <c r="Z629" s="23"/>
-      <c r="AA629" s="22" t="s">
+      <c r="Y629" s="15"/>
+      <c r="Z629" s="15"/>
+      <c r="AA629" s="14" t="s">
         <v>61</v>
       </c>
       <c r="AC629" s="0" t="n">
@@ -49740,67 +49694,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="26" t="s">
+    <row r="654" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A654" s="18" t="s">
         <v>716</v>
       </c>
-      <c r="C654" s="23"/>
-      <c r="D654" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E654" s="27" t="n">
+      <c r="C654" s="15"/>
+      <c r="D654" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E654" s="19" t="n">
         <v>42794</v>
       </c>
-      <c r="F654" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G654" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H654" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="I654" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="J654" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="K654" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="L654" s="22" t="n">
-        <v>91.1</v>
-      </c>
-      <c r="M654" s="23"/>
-      <c r="N654" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="O654" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="P654" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q654" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="R654" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="S654" s="22" t="n">
+      <c r="F654" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G654" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H654" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I654" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J654" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K654" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L654" s="14" t="n">
+        <v>91.1</v>
+      </c>
+      <c r="M654" s="15"/>
+      <c r="N654" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O654" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P654" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q654" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="R654" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="S654" s="14" t="n">
         <v>29865</v>
       </c>
-      <c r="T654" s="23"/>
-      <c r="U654" s="23"/>
-      <c r="V654" s="23"/>
-      <c r="W654" s="23"/>
+      <c r="T654" s="15"/>
+      <c r="U654" s="15"/>
+      <c r="V654" s="15"/>
+      <c r="W654" s="15"/>
       <c r="X654" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y654" s="23"/>
-      <c r="Z654" s="23"/>
-      <c r="AA654" s="22" t="s">
+      <c r="Y654" s="15"/>
+      <c r="Z654" s="15"/>
+      <c r="AA654" s="14" t="s">
         <v>311</v>
       </c>
       <c r="AC654" s="0" t="n">
@@ -52664,67 +52618,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A697" s="26" t="s">
+    <row r="697" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A697" s="18" t="s">
         <v>759</v>
       </c>
-      <c r="C697" s="23"/>
-      <c r="D697" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E697" s="27" t="n">
+      <c r="C697" s="15"/>
+      <c r="D697" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E697" s="19" t="n">
         <v>42797</v>
       </c>
-      <c r="F697" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G697" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H697" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="I697" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="J697" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="K697" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="L697" s="22" t="n">
-        <v>91.1</v>
-      </c>
-      <c r="M697" s="23"/>
-      <c r="N697" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="O697" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="P697" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q697" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="R697" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="S697" s="22" t="n">
+      <c r="F697" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G697" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H697" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I697" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J697" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K697" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L697" s="14" t="n">
+        <v>91.1</v>
+      </c>
+      <c r="M697" s="15"/>
+      <c r="N697" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O697" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P697" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q697" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="R697" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="S697" s="14" t="n">
         <v>29665</v>
       </c>
-      <c r="T697" s="23"/>
-      <c r="U697" s="23"/>
-      <c r="V697" s="23"/>
-      <c r="W697" s="23"/>
+      <c r="T697" s="15"/>
+      <c r="U697" s="15"/>
+      <c r="V697" s="15"/>
+      <c r="W697" s="15"/>
       <c r="X697" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y697" s="23"/>
-      <c r="Z697" s="23"/>
-      <c r="AA697" s="22" t="s">
+      <c r="Y697" s="15"/>
+      <c r="Z697" s="15"/>
+      <c r="AA697" s="14" t="s">
         <v>61</v>
       </c>
       <c r="AC697" s="0" t="n">
@@ -53820,67 +53774,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A714" s="26" t="s">
+    <row r="714" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A714" s="18" t="s">
         <v>776</v>
       </c>
-      <c r="C714" s="23"/>
-      <c r="D714" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E714" s="27" t="n">
+      <c r="C714" s="15"/>
+      <c r="D714" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E714" s="19" t="n">
         <v>42797</v>
       </c>
-      <c r="F714" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G714" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H714" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="I714" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="J714" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="K714" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="L714" s="22" t="n">
-        <v>91.1</v>
-      </c>
-      <c r="M714" s="23"/>
-      <c r="N714" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="O714" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="P714" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q714" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="R714" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="S714" s="22" t="n">
+      <c r="F714" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G714" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H714" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I714" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J714" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K714" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L714" s="14" t="n">
+        <v>91.1</v>
+      </c>
+      <c r="M714" s="15"/>
+      <c r="N714" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O714" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P714" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q714" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="R714" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="S714" s="14" t="n">
         <v>29865</v>
       </c>
-      <c r="T714" s="23"/>
-      <c r="U714" s="23"/>
-      <c r="V714" s="23"/>
-      <c r="W714" s="23"/>
+      <c r="T714" s="15"/>
+      <c r="U714" s="15"/>
+      <c r="V714" s="15"/>
+      <c r="W714" s="15"/>
       <c r="X714" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y714" s="23"/>
-      <c r="Z714" s="23"/>
-      <c r="AA714" s="22" t="s">
+      <c r="Y714" s="15"/>
+      <c r="Z714" s="15"/>
+      <c r="AA714" s="14" t="s">
         <v>311</v>
       </c>
       <c r="AC714" s="0" t="n">
@@ -56676,67 +56630,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A756" s="26" t="s">
+    <row r="756" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A756" s="18" t="s">
         <v>818</v>
       </c>
-      <c r="C756" s="23"/>
-      <c r="D756" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E756" s="27" t="n">
+      <c r="C756" s="15"/>
+      <c r="D756" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E756" s="19" t="n">
         <v>42801</v>
       </c>
-      <c r="F756" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G756" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H756" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="I756" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="J756" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="K756" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="L756" s="22" t="n">
-        <v>91.1</v>
-      </c>
-      <c r="M756" s="23"/>
-      <c r="N756" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="O756" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="P756" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q756" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="R756" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="S756" s="22" t="n">
+      <c r="F756" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G756" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H756" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I756" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J756" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K756" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L756" s="14" t="n">
+        <v>91.1</v>
+      </c>
+      <c r="M756" s="15"/>
+      <c r="N756" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O756" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P756" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q756" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="R756" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="S756" s="14" t="n">
         <v>29665</v>
       </c>
-      <c r="T756" s="23"/>
-      <c r="U756" s="23"/>
-      <c r="V756" s="23"/>
-      <c r="W756" s="23"/>
+      <c r="T756" s="15"/>
+      <c r="U756" s="15"/>
+      <c r="V756" s="15"/>
+      <c r="W756" s="15"/>
       <c r="X756" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y756" s="23"/>
-      <c r="Z756" s="23"/>
-      <c r="AA756" s="22" t="s">
+      <c r="Y756" s="15"/>
+      <c r="Z756" s="15"/>
+      <c r="AA756" s="14" t="s">
         <v>61</v>
       </c>
       <c r="AC756" s="0" t="n">
@@ -58104,68 +58058,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A777" s="26" t="s">
+    <row r="777" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A777" s="18" t="s">
         <v>839</v>
       </c>
-      <c r="B777" s="23"/>
-      <c r="C777" s="23"/>
-      <c r="D777" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E777" s="27" t="n">
+      <c r="B777" s="15"/>
+      <c r="C777" s="15"/>
+      <c r="D777" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E777" s="19" t="n">
         <v>42802</v>
       </c>
-      <c r="F777" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G777" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H777" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="I777" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="J777" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="K777" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="L777" s="22" t="n">
-        <v>91.1</v>
-      </c>
-      <c r="M777" s="23"/>
-      <c r="N777" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="O777" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="P777" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q777" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="R777" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="S777" s="22" t="n">
+      <c r="F777" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G777" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H777" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I777" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J777" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K777" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L777" s="14" t="n">
+        <v>91.1</v>
+      </c>
+      <c r="M777" s="15"/>
+      <c r="N777" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O777" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P777" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q777" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="R777" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="S777" s="14" t="n">
         <v>29865</v>
       </c>
-      <c r="T777" s="23"/>
-      <c r="U777" s="23"/>
-      <c r="V777" s="23"/>
-      <c r="W777" s="23"/>
+      <c r="T777" s="15"/>
+      <c r="U777" s="15"/>
+      <c r="V777" s="15"/>
+      <c r="W777" s="15"/>
       <c r="X777" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y777" s="23"/>
-      <c r="Z777" s="23"/>
-      <c r="AA777" s="22" t="s">
+      <c r="Y777" s="15"/>
+      <c r="Z777" s="15"/>
+      <c r="AA777" s="14" t="s">
         <v>311</v>
       </c>
       <c r="AC777" s="0" t="n">
@@ -60334,7 +60288,7 @@
       </c>
     </row>
     <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="28" t="s">
+      <c r="A814" s="16" t="s">
         <v>876</v>
       </c>
       <c r="D814" s="1" t="s">
@@ -60371,7 +60325,7 @@
       <c r="Q814" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R814" s="20" t="s">
+      <c r="R814" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S814" s="0" t="n">
@@ -60389,7 +60343,7 @@
       </c>
     </row>
     <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="28" t="s">
+      <c r="A815" s="16" t="s">
         <v>880</v>
       </c>
       <c r="D815" s="1" t="s">
@@ -60426,7 +60380,7 @@
       <c r="Q815" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R815" s="20" t="s">
+      <c r="R815" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S815" s="0" t="n">
@@ -60444,7 +60398,7 @@
       </c>
     </row>
     <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="28" t="s">
+      <c r="A816" s="16" t="s">
         <v>881</v>
       </c>
       <c r="D816" s="1" t="s">
@@ -60481,7 +60435,7 @@
       <c r="Q816" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R816" s="20" t="s">
+      <c r="R816" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S816" s="0" t="n">
@@ -60499,7 +60453,7 @@
       </c>
     </row>
     <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A817" s="28" t="s">
+      <c r="A817" s="16" t="s">
         <v>882</v>
       </c>
       <c r="D817" s="1" t="s">
@@ -60536,7 +60490,7 @@
       <c r="Q817" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R817" s="20" t="s">
+      <c r="R817" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S817" s="0" t="n">
@@ -60554,7 +60508,7 @@
       </c>
     </row>
     <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="28" t="s">
+      <c r="A818" s="16" t="s">
         <v>883</v>
       </c>
       <c r="D818" s="1" t="s">
@@ -60591,7 +60545,7 @@
       <c r="Q818" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R818" s="20" t="s">
+      <c r="R818" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S818" s="0" t="s">
@@ -60609,7 +60563,7 @@
       </c>
     </row>
     <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="28" t="s">
+      <c r="A819" s="16" t="s">
         <v>885</v>
       </c>
       <c r="D819" s="1" t="s">
@@ -60646,7 +60600,7 @@
       <c r="Q819" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R819" s="20" t="s">
+      <c r="R819" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S819" s="0" t="s">
@@ -60664,7 +60618,7 @@
       </c>
     </row>
     <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="28" t="s">
+      <c r="A820" s="16" t="s">
         <v>887</v>
       </c>
       <c r="D820" s="1" t="s">
@@ -60701,7 +60655,7 @@
       <c r="Q820" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R820" s="20" t="s">
+      <c r="R820" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S820" s="0" t="n">
@@ -60719,7 +60673,7 @@
       </c>
     </row>
     <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A821" s="28" t="s">
+      <c r="A821" s="16" t="s">
         <v>888</v>
       </c>
       <c r="D821" s="1" t="s">
@@ -60756,7 +60710,7 @@
       <c r="Q821" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R821" s="20" t="s">
+      <c r="R821" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S821" s="0" t="s">
@@ -60774,7 +60728,7 @@
       </c>
     </row>
     <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A822" s="28" t="s">
+      <c r="A822" s="16" t="s">
         <v>890</v>
       </c>
       <c r="D822" s="1" t="s">
@@ -60811,7 +60765,7 @@
       <c r="Q822" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R822" s="20" t="s">
+      <c r="R822" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S822" s="0" t="n">
@@ -60829,7 +60783,7 @@
       </c>
     </row>
     <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A823" s="28" t="s">
+      <c r="A823" s="16" t="s">
         <v>891</v>
       </c>
       <c r="D823" s="1" t="s">
@@ -60866,7 +60820,7 @@
       <c r="Q823" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R823" s="20" t="s">
+      <c r="R823" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S823" s="0" t="n">
@@ -60884,7 +60838,7 @@
       </c>
     </row>
     <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A824" s="28" t="s">
+      <c r="A824" s="16" t="s">
         <v>892</v>
       </c>
       <c r="D824" s="1" t="s">
@@ -60921,7 +60875,7 @@
       <c r="Q824" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R824" s="20" t="s">
+      <c r="R824" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S824" s="0" t="s">
@@ -60939,7 +60893,7 @@
       </c>
     </row>
     <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A825" s="28" t="s">
+      <c r="A825" s="16" t="s">
         <v>894</v>
       </c>
       <c r="D825" s="1" t="s">
@@ -60976,7 +60930,7 @@
       <c r="Q825" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R825" s="20" t="s">
+      <c r="R825" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S825" s="0" t="n">
@@ -60994,7 +60948,7 @@
       </c>
     </row>
     <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A826" s="28" t="s">
+      <c r="A826" s="16" t="s">
         <v>895</v>
       </c>
       <c r="D826" s="1" t="s">
@@ -61031,7 +60985,7 @@
       <c r="Q826" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R826" s="20" t="s">
+      <c r="R826" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S826" s="0" t="n">
@@ -61049,7 +61003,7 @@
       </c>
     </row>
     <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A827" s="28" t="s">
+      <c r="A827" s="16" t="s">
         <v>896</v>
       </c>
       <c r="D827" s="1" t="s">
@@ -61086,7 +61040,7 @@
       <c r="Q827" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R827" s="20" t="s">
+      <c r="R827" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S827" s="0" t="n">
@@ -61104,7 +61058,7 @@
       </c>
     </row>
     <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A828" s="28" t="s">
+      <c r="A828" s="16" t="s">
         <v>897</v>
       </c>
       <c r="D828" s="1" t="s">
@@ -61141,7 +61095,7 @@
       <c r="Q828" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R828" s="20" t="s">
+      <c r="R828" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S828" s="0" t="s">
@@ -61159,7 +61113,7 @@
       </c>
     </row>
     <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A829" s="28" t="s">
+      <c r="A829" s="16" t="s">
         <v>899</v>
       </c>
       <c r="D829" s="1" t="s">
@@ -61196,7 +61150,7 @@
       <c r="Q829" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R829" s="20" t="s">
+      <c r="R829" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S829" s="0" t="n">
@@ -61214,7 +61168,7 @@
       </c>
     </row>
     <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A830" s="28" t="s">
+      <c r="A830" s="16" t="s">
         <v>900</v>
       </c>
       <c r="D830" s="1" t="s">
@@ -61251,7 +61205,7 @@
       <c r="Q830" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R830" s="20" t="s">
+      <c r="R830" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S830" s="0" t="n">
@@ -61269,7 +61223,7 @@
       </c>
     </row>
     <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A831" s="28" t="s">
+      <c r="A831" s="16" t="s">
         <v>901</v>
       </c>
       <c r="D831" s="1" t="s">
@@ -61306,7 +61260,7 @@
       <c r="Q831" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R831" s="20" t="s">
+      <c r="R831" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S831" s="0" t="n">
@@ -61324,7 +61278,7 @@
       </c>
     </row>
     <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A832" s="28" t="s">
+      <c r="A832" s="16" t="s">
         <v>902</v>
       </c>
       <c r="D832" s="1" t="s">
@@ -61361,7 +61315,7 @@
       <c r="Q832" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R832" s="20" t="s">
+      <c r="R832" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S832" s="0" t="n">
@@ -61379,7 +61333,7 @@
       </c>
     </row>
     <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A833" s="28" t="s">
+      <c r="A833" s="16" t="s">
         <v>903</v>
       </c>
       <c r="D833" s="1" t="s">
@@ -61416,7 +61370,7 @@
       <c r="Q833" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R833" s="20" t="s">
+      <c r="R833" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S833" s="0" t="s">
@@ -61434,7 +61388,7 @@
       </c>
     </row>
     <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A834" s="28" t="s">
+      <c r="A834" s="16" t="s">
         <v>905</v>
       </c>
       <c r="D834" s="1" t="s">
@@ -61471,7 +61425,7 @@
       <c r="Q834" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R834" s="20" t="s">
+      <c r="R834" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S834" s="0" t="n">
@@ -61489,7 +61443,7 @@
       </c>
     </row>
     <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A835" s="28" t="s">
+      <c r="A835" s="16" t="s">
         <v>906</v>
       </c>
       <c r="D835" s="1" t="s">
@@ -61526,7 +61480,7 @@
       <c r="Q835" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R835" s="20" t="s">
+      <c r="R835" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S835" s="0" t="n">
@@ -61544,7 +61498,7 @@
       </c>
     </row>
     <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A836" s="28" t="s">
+      <c r="A836" s="16" t="s">
         <v>907</v>
       </c>
       <c r="D836" s="1" t="s">
@@ -61581,7 +61535,7 @@
       <c r="Q836" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R836" s="20" t="s">
+      <c r="R836" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S836" s="0" t="n">
@@ -61599,7 +61553,7 @@
       </c>
     </row>
     <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A837" s="28" t="s">
+      <c r="A837" s="16" t="s">
         <v>908</v>
       </c>
       <c r="D837" s="1" t="s">
@@ -61636,7 +61590,7 @@
       <c r="Q837" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R837" s="20" t="s">
+      <c r="R837" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S837" s="0" t="n">
@@ -61654,7 +61608,7 @@
       </c>
     </row>
     <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A838" s="28" t="s">
+      <c r="A838" s="16" t="s">
         <v>909</v>
       </c>
       <c r="D838" s="1" t="s">
@@ -61691,7 +61645,7 @@
       <c r="Q838" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R838" s="20" t="s">
+      <c r="R838" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S838" s="0" t="n">
@@ -61709,7 +61663,7 @@
       </c>
     </row>
     <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A839" s="28" t="s">
+      <c r="A839" s="16" t="s">
         <v>910</v>
       </c>
       <c r="D839" s="1" t="s">
@@ -61746,7 +61700,7 @@
       <c r="Q839" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R839" s="20" t="s">
+      <c r="R839" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S839" s="0" t="n">
@@ -61764,7 +61718,7 @@
       </c>
     </row>
     <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A840" s="28" t="s">
+      <c r="A840" s="16" t="s">
         <v>911</v>
       </c>
       <c r="D840" s="1" t="s">
@@ -61801,7 +61755,7 @@
       <c r="Q840" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R840" s="20" t="s">
+      <c r="R840" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S840" s="0" t="s">
@@ -61819,7 +61773,7 @@
       </c>
     </row>
     <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A841" s="28" t="s">
+      <c r="A841" s="16" t="s">
         <v>913</v>
       </c>
       <c r="D841" s="1" t="s">
@@ -61856,7 +61810,7 @@
       <c r="Q841" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R841" s="20" t="s">
+      <c r="R841" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S841" s="0" t="s">
@@ -61874,7 +61828,7 @@
       </c>
     </row>
     <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="28" t="s">
+      <c r="A842" s="16" t="s">
         <v>915</v>
       </c>
       <c r="D842" s="1" t="s">
@@ -61911,7 +61865,7 @@
       <c r="Q842" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R842" s="20" t="s">
+      <c r="R842" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S842" s="0" t="s">
@@ -61929,7 +61883,7 @@
       </c>
     </row>
     <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A843" s="28" t="s">
+      <c r="A843" s="16" t="s">
         <v>917</v>
       </c>
       <c r="D843" s="1" t="s">
@@ -61966,7 +61920,7 @@
       <c r="Q843" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R843" s="20" t="s">
+      <c r="R843" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S843" s="0" t="n">
@@ -61984,7 +61938,7 @@
       </c>
     </row>
     <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A844" s="28" t="s">
+      <c r="A844" s="16" t="s">
         <v>918</v>
       </c>
       <c r="D844" s="1" t="s">
@@ -62021,7 +61975,7 @@
       <c r="Q844" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R844" s="20" t="s">
+      <c r="R844" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S844" s="0" t="n">
@@ -62039,7 +61993,7 @@
       </c>
     </row>
     <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A845" s="28" t="s">
+      <c r="A845" s="16" t="s">
         <v>919</v>
       </c>
       <c r="D845" s="1" t="s">
@@ -62076,7 +62030,7 @@
       <c r="Q845" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R845" s="20" t="s">
+      <c r="R845" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S845" s="0" t="n">
@@ -62094,7 +62048,7 @@
       </c>
     </row>
     <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A846" s="28" t="s">
+      <c r="A846" s="16" t="s">
         <v>920</v>
       </c>
       <c r="D846" s="1" t="s">
@@ -62131,7 +62085,7 @@
       <c r="Q846" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R846" s="20" t="s">
+      <c r="R846" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S846" s="0" t="n">
@@ -62149,7 +62103,7 @@
       </c>
     </row>
     <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A847" s="28" t="s">
+      <c r="A847" s="16" t="s">
         <v>921</v>
       </c>
       <c r="D847" s="1" t="s">
@@ -62186,7 +62140,7 @@
       <c r="Q847" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R847" s="20" t="s">
+      <c r="R847" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S847" s="0" t="n">
@@ -62204,7 +62158,7 @@
       </c>
     </row>
     <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A848" s="28" t="s">
+      <c r="A848" s="16" t="s">
         <v>922</v>
       </c>
       <c r="D848" s="1" t="s">
@@ -62241,7 +62195,7 @@
       <c r="Q848" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R848" s="20" t="s">
+      <c r="R848" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S848" s="0" t="n">
@@ -62259,7 +62213,7 @@
       </c>
     </row>
     <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A849" s="28" t="s">
+      <c r="A849" s="16" t="s">
         <v>923</v>
       </c>
       <c r="D849" s="1" t="s">
@@ -62296,7 +62250,7 @@
       <c r="Q849" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R849" s="20" t="s">
+      <c r="R849" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S849" s="0" t="n">
@@ -62314,7 +62268,7 @@
       </c>
     </row>
     <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A850" s="28" t="s">
+      <c r="A850" s="16" t="s">
         <v>924</v>
       </c>
       <c r="D850" s="1" t="s">
@@ -62351,7 +62305,7 @@
       <c r="Q850" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R850" s="20" t="s">
+      <c r="R850" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S850" s="0" t="n">
@@ -62369,7 +62323,7 @@
       </c>
     </row>
     <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A851" s="28" t="s">
+      <c r="A851" s="16" t="s">
         <v>925</v>
       </c>
       <c r="D851" s="1" t="s">
@@ -62406,7 +62360,7 @@
       <c r="Q851" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R851" s="20" t="s">
+      <c r="R851" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S851" s="0" t="n">
@@ -62424,7 +62378,7 @@
       </c>
     </row>
     <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A852" s="28" t="s">
+      <c r="A852" s="16" t="s">
         <v>926</v>
       </c>
       <c r="D852" s="1" t="s">
@@ -62461,7 +62415,7 @@
       <c r="Q852" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R852" s="20" t="s">
+      <c r="R852" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S852" s="0" t="n">
@@ -62479,7 +62433,7 @@
       </c>
     </row>
     <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A853" s="28" t="s">
+      <c r="A853" s="16" t="s">
         <v>927</v>
       </c>
       <c r="D853" s="1" t="s">
@@ -62516,7 +62470,7 @@
       <c r="Q853" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R853" s="20" t="s">
+      <c r="R853" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S853" s="0" t="s">
@@ -62534,7 +62488,7 @@
       </c>
     </row>
     <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A854" s="28" t="s">
+      <c r="A854" s="16" t="s">
         <v>929</v>
       </c>
       <c r="D854" s="1" t="s">
@@ -62571,7 +62525,7 @@
       <c r="Q854" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R854" s="20" t="s">
+      <c r="R854" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S854" s="0" t="s">
@@ -62589,7 +62543,7 @@
       </c>
     </row>
     <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A855" s="28" t="s">
+      <c r="A855" s="16" t="s">
         <v>931</v>
       </c>
       <c r="D855" s="1" t="s">
@@ -62626,7 +62580,7 @@
       <c r="Q855" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R855" s="20" t="s">
+      <c r="R855" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S855" s="0" t="n">
@@ -62644,7 +62598,7 @@
       </c>
     </row>
     <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A856" s="28" t="s">
+      <c r="A856" s="16" t="s">
         <v>888</v>
       </c>
       <c r="D856" s="1" t="s">
@@ -62681,7 +62635,7 @@
       <c r="Q856" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="R856" s="20" t="s">
+      <c r="R856" s="13" t="s">
         <v>878</v>
       </c>
       <c r="S856" s="0" t="s">
@@ -62738,7 +62692,7 @@
       <c r="Q857" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R857" s="20" t="s">
+      <c r="R857" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S857" s="1" t="s">
@@ -62795,7 +62749,7 @@
       <c r="Q858" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R858" s="20" t="s">
+      <c r="R858" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S858" s="1" t="s">
@@ -62852,7 +62806,7 @@
       <c r="Q859" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R859" s="20" t="s">
+      <c r="R859" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S859" s="1" t="s">
@@ -62909,7 +62863,7 @@
       <c r="Q860" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R860" s="20" t="s">
+      <c r="R860" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S860" s="1" t="s">
@@ -62966,7 +62920,7 @@
       <c r="Q861" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R861" s="20" t="s">
+      <c r="R861" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S861" s="1" t="s">
@@ -63023,7 +62977,7 @@
       <c r="Q862" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R862" s="20" t="s">
+      <c r="R862" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S862" s="1" t="s">
@@ -63080,7 +63034,7 @@
       <c r="Q863" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R863" s="20" t="s">
+      <c r="R863" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S863" s="1" t="s">
@@ -63137,7 +63091,7 @@
       <c r="Q864" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R864" s="20" t="s">
+      <c r="R864" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S864" s="1" t="s">
@@ -63194,7 +63148,7 @@
       <c r="Q865" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R865" s="20" t="s">
+      <c r="R865" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S865" s="1" t="s">
@@ -63251,7 +63205,7 @@
       <c r="Q866" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R866" s="20" t="s">
+      <c r="R866" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S866" s="1" t="s">
@@ -63308,7 +63262,7 @@
       <c r="Q867" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R867" s="20" t="s">
+      <c r="R867" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S867" s="1" t="s">
@@ -63365,7 +63319,7 @@
       <c r="Q868" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R868" s="20" t="s">
+      <c r="R868" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S868" s="1" t="s">
@@ -63422,7 +63376,7 @@
       <c r="Q869" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R869" s="20" t="s">
+      <c r="R869" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S869" s="1" t="s">
@@ -63479,7 +63433,7 @@
       <c r="Q870" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R870" s="20" t="s">
+      <c r="R870" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S870" s="1" t="s">
@@ -63536,7 +63490,7 @@
       <c r="Q871" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R871" s="20" t="s">
+      <c r="R871" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S871" s="1" t="s">
@@ -63593,7 +63547,7 @@
       <c r="Q872" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R872" s="20" t="s">
+      <c r="R872" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S872" s="1" t="s">
@@ -63650,7 +63604,7 @@
       <c r="Q873" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R873" s="20" t="s">
+      <c r="R873" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S873" s="1" t="s">
@@ -63707,7 +63661,7 @@
       <c r="Q874" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R874" s="20" t="s">
+      <c r="R874" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S874" s="1" t="s">
@@ -63764,7 +63718,7 @@
       <c r="Q875" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R875" s="20" t="s">
+      <c r="R875" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S875" s="1" t="s">
@@ -63821,7 +63775,7 @@
       <c r="Q876" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R876" s="20" t="s">
+      <c r="R876" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S876" s="1" t="s">
@@ -63878,7 +63832,7 @@
       <c r="Q877" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R877" s="20" t="s">
+      <c r="R877" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S877" s="1" t="s">
@@ -63935,7 +63889,7 @@
       <c r="Q878" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R878" s="20" t="s">
+      <c r="R878" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S878" s="1" t="s">
@@ -63992,7 +63946,7 @@
       <c r="Q879" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R879" s="20" t="s">
+      <c r="R879" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S879" s="1" t="s">
@@ -64010,7 +63964,7 @@
       </c>
     </row>
     <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A880" s="20" t="s">
+      <c r="A880" s="13" t="s">
         <v>966</v>
       </c>
       <c r="D880" s="1" t="s">
@@ -64049,13 +64003,13 @@
       <c r="Q880" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R880" s="20" t="s">
+      <c r="R880" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S880" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="T880" s="20"/>
+      <c r="T880" s="13"/>
       <c r="X880" s="11" t="s">
         <v>53</v>
       </c>
@@ -64067,7 +64021,7 @@
       </c>
     </row>
     <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A881" s="20" t="s">
+      <c r="A881" s="13" t="s">
         <v>967</v>
       </c>
       <c r="D881" s="1" t="s">
@@ -64106,13 +64060,13 @@
       <c r="Q881" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R881" s="20" t="s">
+      <c r="R881" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S881" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="T881" s="20"/>
+      <c r="T881" s="13"/>
       <c r="X881" s="11" t="s">
         <v>53</v>
       </c>
@@ -64160,7 +64114,7 @@
       <c r="Q882" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R882" s="20" t="s">
+      <c r="R882" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S882" s="1" t="s">
@@ -64213,7 +64167,7 @@
       <c r="Q883" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R883" s="20" t="s">
+      <c r="R883" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S883" s="1" t="s">
@@ -64266,7 +64220,7 @@
       <c r="Q884" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R884" s="20" t="s">
+      <c r="R884" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S884" s="1" t="s">
@@ -64319,7 +64273,7 @@
       <c r="Q885" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R885" s="20" t="s">
+      <c r="R885" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S885" s="1" t="s">
@@ -64336,7 +64290,7 @@
       </c>
     </row>
     <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A886" s="20" t="s">
+      <c r="A886" s="13" t="s">
         <v>974</v>
       </c>
       <c r="D886" s="1" t="s">
@@ -64372,7 +64326,7 @@
       <c r="Q886" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R886" s="20" t="s">
+      <c r="R886" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S886" s="1" t="s">
@@ -64389,7 +64343,7 @@
       </c>
     </row>
     <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A887" s="20" t="s">
+      <c r="A887" s="13" t="s">
         <v>975</v>
       </c>
       <c r="D887" s="1" t="s">
@@ -64425,7 +64379,7 @@
       <c r="Q887" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R887" s="20" t="s">
+      <c r="R887" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S887" s="1" t="s">
@@ -64442,7 +64396,7 @@
       </c>
     </row>
     <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A888" s="20" t="s">
+      <c r="A888" s="13" t="s">
         <v>976</v>
       </c>
       <c r="D888" s="1" t="s">
@@ -64478,7 +64432,7 @@
       <c r="Q888" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R888" s="20" t="s">
+      <c r="R888" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S888" s="1" t="s">
@@ -64495,7 +64449,7 @@
       </c>
     </row>
     <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A889" s="20" t="s">
+      <c r="A889" s="13" t="s">
         <v>977</v>
       </c>
       <c r="D889" s="1" t="s">
@@ -64531,7 +64485,7 @@
       <c r="Q889" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R889" s="20" t="s">
+      <c r="R889" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S889" s="1" t="s">
@@ -64548,7 +64502,7 @@
       </c>
     </row>
     <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A890" s="20" t="s">
+      <c r="A890" s="13" t="s">
         <v>978</v>
       </c>
       <c r="D890" s="1" t="s">
@@ -64584,7 +64538,7 @@
       <c r="Q890" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R890" s="20" t="s">
+      <c r="R890" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S890" s="1" t="s">
@@ -64601,7 +64555,7 @@
       </c>
     </row>
     <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A891" s="20" t="s">
+      <c r="A891" s="13" t="s">
         <v>979</v>
       </c>
       <c r="D891" s="1" t="s">
@@ -64637,7 +64591,7 @@
       <c r="Q891" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R891" s="20" t="s">
+      <c r="R891" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S891" s="1" t="s">
@@ -64654,7 +64608,7 @@
       </c>
     </row>
     <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A892" s="20" t="s">
+      <c r="A892" s="13" t="s">
         <v>980</v>
       </c>
       <c r="D892" s="1" t="s">
@@ -64690,7 +64644,7 @@
       <c r="Q892" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R892" s="20" t="s">
+      <c r="R892" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S892" s="1" t="s">
@@ -64707,7 +64661,7 @@
       </c>
     </row>
     <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A893" s="20" t="s">
+      <c r="A893" s="13" t="s">
         <v>981</v>
       </c>
       <c r="D893" s="1" t="s">
@@ -64743,7 +64697,7 @@
       <c r="Q893" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R893" s="20" t="s">
+      <c r="R893" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S893" s="1" t="s">
@@ -64760,7 +64714,7 @@
       </c>
     </row>
     <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A894" s="20" t="s">
+      <c r="A894" s="13" t="s">
         <v>982</v>
       </c>
       <c r="D894" s="1" t="s">
@@ -64796,7 +64750,7 @@
       <c r="Q894" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R894" s="20" t="s">
+      <c r="R894" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S894" s="1" t="s">
@@ -64813,7 +64767,7 @@
       </c>
     </row>
     <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A895" s="20" t="s">
+      <c r="A895" s="13" t="s">
         <v>983</v>
       </c>
       <c r="D895" s="1" t="s">
@@ -64849,7 +64803,7 @@
       <c r="Q895" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R895" s="20" t="s">
+      <c r="R895" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S895" s="1" t="s">
@@ -64866,7 +64820,7 @@
       </c>
     </row>
     <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A896" s="20" t="s">
+      <c r="A896" s="13" t="s">
         <v>984</v>
       </c>
       <c r="D896" s="1" t="s">
@@ -64902,7 +64856,7 @@
       <c r="Q896" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R896" s="20" t="s">
+      <c r="R896" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S896" s="1" t="s">
@@ -64919,7 +64873,7 @@
       </c>
     </row>
     <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A897" s="20" t="s">
+      <c r="A897" s="13" t="s">
         <v>985</v>
       </c>
       <c r="D897" s="1" t="s">
@@ -64955,7 +64909,7 @@
       <c r="Q897" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R897" s="20" t="s">
+      <c r="R897" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S897" s="1" t="s">
@@ -64972,7 +64926,7 @@
       </c>
     </row>
     <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A898" s="20" t="s">
+      <c r="A898" s="13" t="s">
         <v>986</v>
       </c>
       <c r="D898" s="1" t="s">
@@ -65008,7 +64962,7 @@
       <c r="Q898" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R898" s="20" t="s">
+      <c r="R898" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S898" s="1" t="s">
@@ -65025,7 +64979,7 @@
       </c>
     </row>
     <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A899" s="20" t="s">
+      <c r="A899" s="13" t="s">
         <v>987</v>
       </c>
       <c r="D899" s="1" t="s">
@@ -65061,7 +65015,7 @@
       <c r="Q899" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R899" s="20" t="s">
+      <c r="R899" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S899" s="1" t="s">
@@ -65078,7 +65032,7 @@
       </c>
     </row>
     <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A900" s="20" t="s">
+      <c r="A900" s="13" t="s">
         <v>988</v>
       </c>
       <c r="D900" s="1" t="s">
@@ -65114,7 +65068,7 @@
       <c r="Q900" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="R900" s="20" t="s">
+      <c r="R900" s="13" t="s">
         <v>937</v>
       </c>
       <c r="S900" s="1" t="s">
@@ -65143,7 +65097,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -65160,13 +65114,13 @@
   </sheetPr>
   <dimension ref="A1:C629"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -65185,7 +65139,7 @@
       <c r="A2" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="20" t="s">
         <v>992</v>
       </c>
       <c r="C2" s="0" t="str">
@@ -67174,10 +67128,10 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="23" t="s">
+      <c r="A168" s="15" t="s">
         <v>1088</v>
       </c>
-      <c r="B168" s="23" t="s">
+      <c r="B168" s="15" t="s">
         <v>990</v>
       </c>
       <c r="C168" s="0" t="str">
@@ -67582,10 +67536,10 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="23" t="s">
+      <c r="A202" s="15" t="s">
         <v>1088</v>
       </c>
-      <c r="B202" s="23" t="s">
+      <c r="B202" s="15" t="s">
         <v>997</v>
       </c>
       <c r="C202" s="0" t="str">
@@ -68038,10 +67992,10 @@
       </c>
     </row>
     <row r="240" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="23" t="s">
+      <c r="A240" s="15" t="s">
         <v>1088</v>
       </c>
-      <c r="B240" s="23" t="s">
+      <c r="B240" s="15" t="s">
         <v>995</v>
       </c>
       <c r="C240" s="0" t="str">
@@ -68470,10 +68424,10 @@
       </c>
     </row>
     <row r="276" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="23" t="s">
+      <c r="A276" s="15" t="s">
         <v>1111</v>
       </c>
-      <c r="B276" s="23" t="s">
+      <c r="B276" s="15" t="s">
         <v>997</v>
       </c>
       <c r="C276" s="0" t="str">
@@ -68698,10 +68652,10 @@
       </c>
     </row>
     <row r="295" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="23" t="s">
+      <c r="A295" s="15" t="s">
         <v>1088</v>
       </c>
-      <c r="B295" s="23" t="s">
+      <c r="B295" s="15" t="s">
         <v>1000</v>
       </c>
       <c r="C295" s="0" t="str">
@@ -69190,10 +69144,10 @@
       </c>
     </row>
     <row r="336" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="15" t="s">
         <v>1111</v>
       </c>
-      <c r="B336" s="23" t="s">
+      <c r="B336" s="15" t="s">
         <v>1000</v>
       </c>
       <c r="C336" s="0" t="str">
@@ -69754,10 +69708,10 @@
       </c>
     </row>
     <row r="383" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="23" t="s">
+      <c r="A383" s="15" t="s">
         <v>1111</v>
       </c>
-      <c r="B383" s="23" t="s">
+      <c r="B383" s="15" t="s">
         <v>992</v>
       </c>
       <c r="C383" s="0" t="str">
@@ -70174,10 +70128,10 @@
       </c>
     </row>
     <row r="418" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="23" t="s">
+      <c r="A418" s="15" t="s">
         <v>1088</v>
       </c>
-      <c r="B418" s="23" t="s">
+      <c r="B418" s="15" t="s">
         <v>992</v>
       </c>
       <c r="C418" s="0" t="str">
@@ -71662,10 +71616,10 @@
       </c>
     </row>
     <row r="542" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="23" t="s">
+      <c r="A542" s="15" t="s">
         <v>1111</v>
       </c>
-      <c r="B542" s="23" t="s">
+      <c r="B542" s="15" t="s">
         <v>995</v>
       </c>
       <c r="C542" s="0" t="str">
@@ -72190,10 +72144,10 @@
       </c>
     </row>
     <row r="586" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="23" t="s">
+      <c r="A586" s="15" t="s">
         <v>1111</v>
       </c>
-      <c r="B586" s="23" t="s">
+      <c r="B586" s="15" t="s">
         <v>990</v>
       </c>
       <c r="C586" s="0" t="str">
@@ -72720,7 +72674,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
